--- a/dupak/Dupak 2021/Lembar Penilaian Prakom Butir Baru.xlsx
+++ b/dupak/Dupak 2021/Lembar Penilaian Prakom Butir Baru.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kukuh\Downloads\Juknis Prakom Baru-20211220T025333Z-001\Juknis Prakom Baru\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\myarticle\dupak\Dupak 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB2E3AB-C3D4-46B5-9E8A-2C6B41F02F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81093E2-D16C-410B-8215-BA7DD59BE84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6618,46 +6618,52 @@
     <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6668,18 +6674,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6705,86 +6699,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6801,11 +6762,50 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8482,28 +8482,28 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="266"/>
-      <c r="O1" s="266"/>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
-      <c r="S1" s="266"/>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
+      <c r="B1" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="264"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="264"/>
+      <c r="P1" s="264"/>
+      <c r="Q1" s="264"/>
+      <c r="R1" s="264"/>
+      <c r="S1" s="264"/>
+      <c r="T1" s="264"/>
+      <c r="U1" s="264"/>
       <c r="W1" s="159" t="s">
         <v>1</v>
       </c>
@@ -8521,28 +8521,28 @@
     </row>
     <row r="2" spans="1:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="267" t="s">
+      <c r="B2" s="265" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="267"/>
-      <c r="N2" s="267"/>
-      <c r="O2" s="267"/>
-      <c r="P2" s="267"/>
-      <c r="Q2" s="267"/>
-      <c r="R2" s="267"/>
-      <c r="S2" s="267"/>
-      <c r="T2" s="267"/>
-      <c r="U2" s="267"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="265"/>
+      <c r="K2" s="265"/>
+      <c r="L2" s="265"/>
+      <c r="M2" s="265"/>
+      <c r="N2" s="265"/>
+      <c r="O2" s="265"/>
+      <c r="P2" s="265"/>
+      <c r="Q2" s="265"/>
+      <c r="R2" s="265"/>
+      <c r="S2" s="265"/>
+      <c r="T2" s="265"/>
+      <c r="U2" s="265"/>
       <c r="W2" s="163"/>
       <c r="X2" s="163"/>
       <c r="Y2" s="163"/>
@@ -8769,48 +8769,48 @@
     </row>
     <row r="8" spans="1:34" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="268" t="s">
+      <c r="B8" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="269"/>
-      <c r="D8" s="269"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="270"/>
-      <c r="G8" s="274" t="s">
+      <c r="C8" s="267"/>
+      <c r="D8" s="267"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="268"/>
+      <c r="G8" s="254" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="274" t="s">
+      <c r="H8" s="254" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="274" t="s">
+      <c r="I8" s="254" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="274" t="s">
+      <c r="J8" s="254" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="274" t="s">
+      <c r="K8" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="276" t="s">
+      <c r="L8" s="252" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="277"/>
-      <c r="N8" s="276" t="s">
+      <c r="M8" s="253"/>
+      <c r="N8" s="252" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="277"/>
-      <c r="P8" s="276" t="s">
+      <c r="O8" s="253"/>
+      <c r="P8" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="277"/>
-      <c r="R8" s="274" t="s">
+      <c r="Q8" s="253"/>
+      <c r="R8" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="276" t="s">
+      <c r="S8" s="252" t="s">
         <v>97</v>
       </c>
-      <c r="T8" s="277"/>
-      <c r="U8" s="274" t="s">
+      <c r="T8" s="253"/>
+      <c r="U8" s="254" t="s">
         <v>22</v>
       </c>
       <c r="V8" s="11"/>
@@ -8839,16 +8839,16 @@
     </row>
     <row r="9" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="271"/>
-      <c r="C9" s="272"/>
-      <c r="D9" s="272"/>
-      <c r="E9" s="272"/>
-      <c r="F9" s="273"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="275"/>
-      <c r="I9" s="275"/>
-      <c r="J9" s="275"/>
-      <c r="K9" s="275"/>
+      <c r="B9" s="269"/>
+      <c r="C9" s="270"/>
+      <c r="D9" s="270"/>
+      <c r="E9" s="270"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="255"/>
+      <c r="H9" s="255"/>
+      <c r="I9" s="255"/>
+      <c r="J9" s="255"/>
+      <c r="K9" s="255"/>
       <c r="L9" s="93" t="s">
         <v>23</v>
       </c>
@@ -8867,14 +8867,14 @@
       <c r="Q9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="275"/>
+      <c r="R9" s="255"/>
       <c r="S9" s="93" t="s">
         <v>23</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="275"/>
+      <c r="U9" s="255"/>
       <c r="V9" s="11"/>
       <c r="W9" s="163"/>
       <c r="X9" s="163"/>
@@ -8891,13 +8891,13 @@
     </row>
     <row r="10" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="281">
+      <c r="B10" s="256">
         <v>-1</v>
       </c>
-      <c r="C10" s="282"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="283"/>
+      <c r="C10" s="257"/>
+      <c r="D10" s="257"/>
+      <c r="E10" s="257"/>
+      <c r="F10" s="258"/>
       <c r="G10" s="13">
         <v>-2</v>
       </c>
@@ -8961,17 +8961,17 @@
       <c r="B11" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="278" t="s">
+      <c r="C11" s="249" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="279"/>
-      <c r="E11" s="279"/>
-      <c r="F11" s="279"/>
-      <c r="G11" s="279"/>
-      <c r="H11" s="279"/>
-      <c r="I11" s="279"/>
-      <c r="J11" s="279"/>
-      <c r="K11" s="280"/>
+      <c r="D11" s="250"/>
+      <c r="E11" s="250"/>
+      <c r="F11" s="250"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="250"/>
+      <c r="I11" s="250"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="251"/>
       <c r="L11" s="18"/>
       <c r="M11" s="16"/>
       <c r="N11" s="18"/>
@@ -9006,16 +9006,16 @@
       <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="278" t="s">
+      <c r="D12" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="279"/>
-      <c r="F12" s="279"/>
-      <c r="G12" s="279"/>
-      <c r="H12" s="279"/>
-      <c r="I12" s="279"/>
-      <c r="J12" s="279"/>
-      <c r="K12" s="280"/>
+      <c r="E12" s="250"/>
+      <c r="F12" s="250"/>
+      <c r="G12" s="250"/>
+      <c r="H12" s="250"/>
+      <c r="I12" s="250"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="251"/>
       <c r="L12" s="18"/>
       <c r="M12" s="16"/>
       <c r="N12" s="18"/>
@@ -9063,10 +9063,10 @@
       <c r="D13" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="253" t="s">
+      <c r="E13" s="259" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="254"/>
+      <c r="F13" s="260"/>
       <c r="G13" s="98" t="s">
         <v>102</v>
       </c>
@@ -9141,16 +9141,16 @@
       <c r="C14" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="259" t="s">
+      <c r="D14" s="261" t="s">
         <v>894</v>
       </c>
-      <c r="E14" s="260"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="260"/>
-      <c r="I14" s="260"/>
-      <c r="J14" s="260"/>
-      <c r="K14" s="261"/>
+      <c r="E14" s="262"/>
+      <c r="F14" s="262"/>
+      <c r="G14" s="262"/>
+      <c r="H14" s="262"/>
+      <c r="I14" s="262"/>
+      <c r="J14" s="262"/>
+      <c r="K14" s="263"/>
       <c r="L14" s="209"/>
       <c r="M14" s="66"/>
       <c r="N14" s="209"/>
@@ -9198,10 +9198,10 @@
       <c r="D15" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="257" t="s">
+      <c r="E15" s="247" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="258"/>
+      <c r="F15" s="248"/>
       <c r="G15" s="98" t="s">
         <v>196</v>
       </c>
@@ -9275,10 +9275,10 @@
       <c r="D16" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="257" t="s">
+      <c r="E16" s="247" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="258"/>
+      <c r="F16" s="248"/>
       <c r="G16" s="98" t="s">
         <v>197</v>
       </c>
@@ -9337,10 +9337,10 @@
       <c r="D17" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="257" t="s">
+      <c r="E17" s="247" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="258"/>
+      <c r="F17" s="248"/>
       <c r="G17" s="98" t="s">
         <v>198</v>
       </c>
@@ -9416,10 +9416,10 @@
       <c r="D18" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="257" t="s">
+      <c r="E18" s="247" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="258"/>
+      <c r="F18" s="248"/>
       <c r="G18" s="98" t="s">
         <v>199</v>
       </c>
@@ -9495,10 +9495,10 @@
       <c r="D19" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="257" t="s">
+      <c r="E19" s="247" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="258"/>
+      <c r="F19" s="248"/>
       <c r="G19" s="98" t="s">
         <v>200</v>
       </c>
@@ -9572,10 +9572,10 @@
       <c r="D20" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="257" t="s">
+      <c r="E20" s="247" t="s">
         <v>164</v>
       </c>
-      <c r="F20" s="258"/>
+      <c r="F20" s="248"/>
       <c r="G20" s="98" t="s">
         <v>252</v>
       </c>
@@ -9634,10 +9634,10 @@
       <c r="D21" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="257" t="s">
+      <c r="E21" s="247" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="258"/>
+      <c r="F21" s="248"/>
       <c r="G21" s="98" t="s">
         <v>253</v>
       </c>
@@ -9710,10 +9710,10 @@
       <c r="D22" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="257" t="s">
+      <c r="E22" s="247" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="258"/>
+      <c r="F22" s="248"/>
       <c r="G22" s="98" t="s">
         <v>201</v>
       </c>
@@ -9792,10 +9792,10 @@
       <c r="D23" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="257" t="s">
+      <c r="E23" s="247" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="258"/>
+      <c r="F23" s="248"/>
       <c r="G23" s="98" t="s">
         <v>202</v>
       </c>
@@ -9842,10 +9842,10 @@
       <c r="D24" s="210" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="257" t="s">
+      <c r="E24" s="247" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="258"/>
+      <c r="F24" s="248"/>
       <c r="G24" s="98" t="s">
         <v>254</v>
       </c>
@@ -9892,10 +9892,10 @@
       <c r="D25" s="210" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="257" t="s">
+      <c r="E25" s="247" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="258"/>
+      <c r="F25" s="248"/>
       <c r="G25" s="98" t="s">
         <v>255</v>
       </c>
@@ -9942,10 +9942,10 @@
       <c r="D26" s="210" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="257" t="s">
+      <c r="E26" s="247" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="258"/>
+      <c r="F26" s="248"/>
       <c r="G26" s="98" t="s">
         <v>203</v>
       </c>
@@ -9992,10 +9992,10 @@
       <c r="D27" s="210" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="257" t="s">
+      <c r="E27" s="247" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="258"/>
+      <c r="F27" s="248"/>
       <c r="G27" s="98" t="s">
         <v>204</v>
       </c>
@@ -10042,10 +10042,10 @@
       <c r="D28" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="257" t="s">
+      <c r="E28" s="247" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="258"/>
+      <c r="F28" s="248"/>
       <c r="G28" s="98" t="s">
         <v>205</v>
       </c>
@@ -10092,10 +10092,10 @@
       <c r="D29" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="257" t="s">
+      <c r="E29" s="247" t="s">
         <v>168</v>
       </c>
-      <c r="F29" s="258"/>
+      <c r="F29" s="248"/>
       <c r="G29" s="98" t="s">
         <v>256</v>
       </c>
@@ -10142,10 +10142,10 @@
       <c r="D30" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="257" t="s">
+      <c r="E30" s="247" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="258"/>
+      <c r="F30" s="248"/>
       <c r="G30" s="98" t="s">
         <v>206</v>
       </c>
@@ -10192,10 +10192,10 @@
       <c r="D31" s="210" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="257" t="s">
+      <c r="E31" s="247" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="258"/>
+      <c r="F31" s="248"/>
       <c r="G31" s="98" t="s">
         <v>207</v>
       </c>
@@ -10242,10 +10242,10 @@
       <c r="D32" s="210" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="257" t="s">
+      <c r="E32" s="247" t="s">
         <v>169</v>
       </c>
-      <c r="F32" s="258"/>
+      <c r="F32" s="248"/>
       <c r="G32" s="98" t="s">
         <v>257</v>
       </c>
@@ -10292,10 +10292,10 @@
       <c r="D33" s="210" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="257" t="s">
+      <c r="E33" s="247" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="258"/>
+      <c r="F33" s="248"/>
       <c r="G33" s="98" t="s">
         <v>208</v>
       </c>
@@ -10342,10 +10342,10 @@
       <c r="D34" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="257" t="s">
+      <c r="E34" s="247" t="s">
         <v>170</v>
       </c>
-      <c r="F34" s="258"/>
+      <c r="F34" s="248"/>
       <c r="G34" s="98" t="s">
         <v>258</v>
       </c>
@@ -10392,10 +10392,10 @@
       <c r="D35" s="210" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="257" t="s">
+      <c r="E35" s="247" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="258"/>
+      <c r="F35" s="248"/>
       <c r="G35" s="98" t="s">
         <v>209</v>
       </c>
@@ -10442,10 +10442,10 @@
       <c r="D36" s="210" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="257" t="s">
+      <c r="E36" s="247" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="258"/>
+      <c r="F36" s="248"/>
       <c r="G36" s="98" t="s">
         <v>210</v>
       </c>
@@ -10492,10 +10492,10 @@
       <c r="D37" s="210" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="257" t="s">
+      <c r="E37" s="247" t="s">
         <v>172</v>
       </c>
-      <c r="F37" s="258"/>
+      <c r="F37" s="248"/>
       <c r="G37" s="98" t="s">
         <v>211</v>
       </c>
@@ -10543,10 +10543,10 @@
       <c r="D38" s="210" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="257" t="s">
+      <c r="E38" s="247" t="s">
         <v>173</v>
       </c>
-      <c r="F38" s="258"/>
+      <c r="F38" s="248"/>
       <c r="G38" s="98" t="s">
         <v>259</v>
       </c>
@@ -10591,10 +10591,10 @@
       <c r="D39" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="257" t="s">
+      <c r="E39" s="247" t="s">
         <v>174</v>
       </c>
-      <c r="F39" s="258"/>
+      <c r="F39" s="248"/>
       <c r="G39" s="98" t="s">
         <v>212</v>
       </c>
@@ -10641,10 +10641,10 @@
       <c r="D40" s="210" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="257" t="s">
+      <c r="E40" s="247" t="s">
         <v>117</v>
       </c>
-      <c r="F40" s="258"/>
+      <c r="F40" s="248"/>
       <c r="G40" s="98" t="s">
         <v>213</v>
       </c>
@@ -10691,10 +10691,10 @@
       <c r="D41" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="257" t="s">
+      <c r="E41" s="247" t="s">
         <v>175</v>
       </c>
-      <c r="F41" s="258"/>
+      <c r="F41" s="248"/>
       <c r="G41" s="98" t="s">
         <v>214</v>
       </c>
@@ -10740,16 +10740,16 @@
       <c r="C42" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="250" t="s">
+      <c r="D42" s="272" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="251"/>
-      <c r="F42" s="251"/>
-      <c r="G42" s="251"/>
-      <c r="H42" s="251"/>
-      <c r="I42" s="251"/>
-      <c r="J42" s="251"/>
-      <c r="K42" s="252"/>
+      <c r="E42" s="273"/>
+      <c r="F42" s="273"/>
+      <c r="G42" s="273"/>
+      <c r="H42" s="273"/>
+      <c r="I42" s="273"/>
+      <c r="J42" s="273"/>
+      <c r="K42" s="274"/>
       <c r="L42" s="209"/>
       <c r="M42" s="66"/>
       <c r="N42" s="209"/>
@@ -10768,10 +10768,10 @@
       <c r="D43" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="257" t="s">
+      <c r="E43" s="247" t="s">
         <v>134</v>
       </c>
-      <c r="F43" s="258"/>
+      <c r="F43" s="248"/>
       <c r="G43" s="98" t="s">
         <v>215</v>
       </c>
@@ -10818,10 +10818,10 @@
       <c r="D44" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="257" t="s">
+      <c r="E44" s="247" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="258"/>
+      <c r="F44" s="248"/>
       <c r="G44" s="98" t="s">
         <v>216</v>
       </c>
@@ -10866,17 +10866,17 @@
       <c r="B45" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="259" t="s">
+      <c r="C45" s="261" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="260"/>
-      <c r="E45" s="260"/>
-      <c r="F45" s="260"/>
-      <c r="G45" s="260"/>
-      <c r="H45" s="260"/>
-      <c r="I45" s="260"/>
-      <c r="J45" s="260"/>
-      <c r="K45" s="261"/>
+      <c r="D45" s="262"/>
+      <c r="E45" s="262"/>
+      <c r="F45" s="262"/>
+      <c r="G45" s="262"/>
+      <c r="H45" s="262"/>
+      <c r="I45" s="262"/>
+      <c r="J45" s="262"/>
+      <c r="K45" s="263"/>
       <c r="L45" s="16"/>
       <c r="M45" s="66"/>
       <c r="N45" s="16"/>
@@ -10895,16 +10895,16 @@
       <c r="C46" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="259" t="s">
+      <c r="D46" s="261" t="s">
         <v>137</v>
       </c>
-      <c r="E46" s="260"/>
-      <c r="F46" s="260"/>
-      <c r="G46" s="260"/>
-      <c r="H46" s="260"/>
-      <c r="I46" s="260"/>
-      <c r="J46" s="260"/>
-      <c r="K46" s="261"/>
+      <c r="E46" s="262"/>
+      <c r="F46" s="262"/>
+      <c r="G46" s="262"/>
+      <c r="H46" s="262"/>
+      <c r="I46" s="262"/>
+      <c r="J46" s="262"/>
+      <c r="K46" s="263"/>
       <c r="L46" s="16"/>
       <c r="M46" s="66"/>
       <c r="N46" s="16"/>
@@ -10923,10 +10923,10 @@
       <c r="D47" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="257" t="s">
+      <c r="E47" s="247" t="s">
         <v>176</v>
       </c>
-      <c r="F47" s="258"/>
+      <c r="F47" s="248"/>
       <c r="G47" s="98" t="s">
         <v>217</v>
       </c>
@@ -10973,10 +10973,10 @@
       <c r="D48" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="257" t="s">
+      <c r="E48" s="247" t="s">
         <v>177</v>
       </c>
-      <c r="F48" s="258"/>
+      <c r="F48" s="248"/>
       <c r="G48" s="98" t="s">
         <v>218</v>
       </c>
@@ -11023,10 +11023,10 @@
       <c r="D49" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="257" t="s">
+      <c r="E49" s="247" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="258"/>
+      <c r="F49" s="248"/>
       <c r="G49" s="98" t="s">
         <v>219</v>
       </c>
@@ -11073,10 +11073,10 @@
       <c r="D50" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="257" t="s">
+      <c r="E50" s="247" t="s">
         <v>179</v>
       </c>
-      <c r="F50" s="258"/>
+      <c r="F50" s="248"/>
       <c r="G50" s="98" t="s">
         <v>220</v>
       </c>
@@ -11123,10 +11123,10 @@
       <c r="D51" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="257" t="s">
+      <c r="E51" s="247" t="s">
         <v>180</v>
       </c>
-      <c r="F51" s="258"/>
+      <c r="F51" s="248"/>
       <c r="G51" s="98" t="s">
         <v>221</v>
       </c>
@@ -11173,10 +11173,10 @@
       <c r="D52" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="257" t="s">
+      <c r="E52" s="247" t="s">
         <v>181</v>
       </c>
-      <c r="F52" s="258"/>
+      <c r="F52" s="248"/>
       <c r="G52" s="98" t="s">
         <v>222</v>
       </c>
@@ -11222,10 +11222,10 @@
       <c r="D53" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="257" t="s">
+      <c r="E53" s="247" t="s">
         <v>182</v>
       </c>
-      <c r="F53" s="258"/>
+      <c r="F53" s="248"/>
       <c r="G53" s="98" t="s">
         <v>223</v>
       </c>
@@ -11272,10 +11272,10 @@
       <c r="D54" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="257" t="s">
+      <c r="E54" s="247" t="s">
         <v>183</v>
       </c>
-      <c r="F54" s="258"/>
+      <c r="F54" s="248"/>
       <c r="G54" s="98" t="s">
         <v>224</v>
       </c>
@@ -11322,10 +11322,10 @@
       <c r="D55" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="257" t="s">
+      <c r="E55" s="247" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="258"/>
+      <c r="F55" s="248"/>
       <c r="G55" s="98" t="s">
         <v>225</v>
       </c>
@@ -11335,7 +11335,7 @@
       <c r="I55" s="100" t="s">
         <v>271</v>
       </c>
-      <c r="J55" s="263"/>
+      <c r="J55" s="275"/>
       <c r="K55" s="56">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -11383,10 +11383,10 @@
       <c r="D56" s="210" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="257" t="s">
+      <c r="E56" s="247" t="s">
         <v>138</v>
       </c>
-      <c r="F56" s="258"/>
+      <c r="F56" s="248"/>
       <c r="G56" s="98" t="s">
         <v>226</v>
       </c>
@@ -11396,7 +11396,7 @@
       <c r="I56" s="100" t="s">
         <v>270</v>
       </c>
-      <c r="J56" s="264"/>
+      <c r="J56" s="276"/>
       <c r="K56" s="32">
         <v>1.68625</v>
       </c>
@@ -11443,16 +11443,16 @@
       <c r="C57" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="250" t="s">
+      <c r="D57" s="272" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="251"/>
-      <c r="F57" s="251"/>
-      <c r="G57" s="251"/>
-      <c r="H57" s="251"/>
-      <c r="I57" s="251"/>
-      <c r="J57" s="251"/>
-      <c r="K57" s="252"/>
+      <c r="E57" s="273"/>
+      <c r="F57" s="273"/>
+      <c r="G57" s="273"/>
+      <c r="H57" s="273"/>
+      <c r="I57" s="273"/>
+      <c r="J57" s="273"/>
+      <c r="K57" s="274"/>
       <c r="L57" s="16"/>
       <c r="M57" s="66"/>
       <c r="N57" s="16"/>
@@ -11472,10 +11472,10 @@
       <c r="D58" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="257" t="s">
+      <c r="E58" s="247" t="s">
         <v>185</v>
       </c>
-      <c r="F58" s="258"/>
+      <c r="F58" s="248"/>
       <c r="G58" s="98" t="s">
         <v>260</v>
       </c>
@@ -11522,10 +11522,10 @@
       <c r="D59" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="257" t="s">
+      <c r="E59" s="247" t="s">
         <v>140</v>
       </c>
-      <c r="F59" s="258"/>
+      <c r="F59" s="248"/>
       <c r="G59" s="98" t="s">
         <v>227</v>
       </c>
@@ -11572,10 +11572,10 @@
       <c r="D60" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="257" t="s">
+      <c r="E60" s="247" t="s">
         <v>186</v>
       </c>
-      <c r="F60" s="258"/>
+      <c r="F60" s="248"/>
       <c r="G60" s="98" t="s">
         <v>261</v>
       </c>
@@ -11622,10 +11622,10 @@
       <c r="D61" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="257" t="s">
+      <c r="E61" s="247" t="s">
         <v>141</v>
       </c>
-      <c r="F61" s="258"/>
+      <c r="F61" s="248"/>
       <c r="G61" s="98" t="s">
         <v>228</v>
       </c>
@@ -11672,10 +11672,10 @@
       <c r="D62" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="E62" s="257" t="s">
+      <c r="E62" s="247" t="s">
         <v>187</v>
       </c>
-      <c r="F62" s="258"/>
+      <c r="F62" s="248"/>
       <c r="G62" s="98" t="s">
         <v>262</v>
       </c>
@@ -11722,10 +11722,10 @@
       <c r="D63" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="257" t="s">
+      <c r="E63" s="247" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="258"/>
+      <c r="F63" s="248"/>
       <c r="G63" s="98" t="s">
         <v>263</v>
       </c>
@@ -11772,10 +11772,10 @@
       <c r="D64" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="E64" s="257" t="s">
+      <c r="E64" s="247" t="s">
         <v>142</v>
       </c>
-      <c r="F64" s="258"/>
+      <c r="F64" s="248"/>
       <c r="G64" s="98" t="s">
         <v>229</v>
       </c>
@@ -11822,10 +11822,10 @@
       <c r="D65" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="257" t="s">
+      <c r="E65" s="247" t="s">
         <v>189</v>
       </c>
-      <c r="F65" s="258"/>
+      <c r="F65" s="248"/>
       <c r="G65" s="98" t="s">
         <v>230</v>
       </c>
@@ -11872,10 +11872,10 @@
       <c r="D66" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="257" t="s">
+      <c r="E66" s="247" t="s">
         <v>190</v>
       </c>
-      <c r="F66" s="258"/>
+      <c r="F66" s="248"/>
       <c r="G66" s="98" t="s">
         <v>264</v>
       </c>
@@ -11923,10 +11923,10 @@
       <c r="D67" s="210" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="257" t="s">
+      <c r="E67" s="247" t="s">
         <v>191</v>
       </c>
-      <c r="F67" s="258"/>
+      <c r="F67" s="248"/>
       <c r="G67" s="98" t="s">
         <v>265</v>
       </c>
@@ -11972,17 +11972,17 @@
       <c r="B68" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="259" t="s">
+      <c r="C68" s="261" t="s">
         <v>143</v>
       </c>
-      <c r="D68" s="260"/>
-      <c r="E68" s="260"/>
-      <c r="F68" s="260"/>
-      <c r="G68" s="260"/>
-      <c r="H68" s="260"/>
-      <c r="I68" s="260"/>
-      <c r="J68" s="260"/>
-      <c r="K68" s="261"/>
+      <c r="D68" s="262"/>
+      <c r="E68" s="262"/>
+      <c r="F68" s="262"/>
+      <c r="G68" s="262"/>
+      <c r="H68" s="262"/>
+      <c r="I68" s="262"/>
+      <c r="J68" s="262"/>
+      <c r="K68" s="263"/>
       <c r="L68" s="16"/>
       <c r="M68" s="66"/>
       <c r="N68" s="16"/>
@@ -12001,16 +12001,16 @@
       <c r="C69" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="250" t="s">
+      <c r="D69" s="272" t="s">
         <v>144</v>
       </c>
-      <c r="E69" s="251"/>
-      <c r="F69" s="251"/>
-      <c r="G69" s="251"/>
-      <c r="H69" s="251"/>
-      <c r="I69" s="251"/>
-      <c r="J69" s="251"/>
-      <c r="K69" s="252"/>
+      <c r="E69" s="273"/>
+      <c r="F69" s="273"/>
+      <c r="G69" s="273"/>
+      <c r="H69" s="273"/>
+      <c r="I69" s="273"/>
+      <c r="J69" s="273"/>
+      <c r="K69" s="274"/>
       <c r="L69" s="16"/>
       <c r="M69" s="66"/>
       <c r="N69" s="16"/>
@@ -12030,10 +12030,10 @@
       <c r="D70" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="257" t="s">
+      <c r="E70" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="F70" s="258"/>
+      <c r="F70" s="248"/>
       <c r="G70" s="98" t="s">
         <v>231</v>
       </c>
@@ -12080,10 +12080,10 @@
       <c r="D71" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="257" t="s">
+      <c r="E71" s="247" t="s">
         <v>146</v>
       </c>
-      <c r="F71" s="258"/>
+      <c r="F71" s="248"/>
       <c r="G71" s="98" t="s">
         <v>232</v>
       </c>
@@ -12130,10 +12130,10 @@
       <c r="D72" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E72" s="257" t="s">
+      <c r="E72" s="247" t="s">
         <v>147</v>
       </c>
-      <c r="F72" s="258"/>
+      <c r="F72" s="248"/>
       <c r="G72" s="98" t="s">
         <v>233</v>
       </c>
@@ -12180,10 +12180,10 @@
       <c r="D73" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E73" s="257" t="s">
+      <c r="E73" s="247" t="s">
         <v>148</v>
       </c>
-      <c r="F73" s="258"/>
+      <c r="F73" s="248"/>
       <c r="G73" s="98" t="s">
         <v>234</v>
       </c>
@@ -12229,10 +12229,10 @@
       <c r="D74" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="E74" s="257" t="s">
+      <c r="E74" s="247" t="s">
         <v>149</v>
       </c>
-      <c r="F74" s="258"/>
+      <c r="F74" s="248"/>
       <c r="G74" s="98" t="s">
         <v>235</v>
       </c>
@@ -12242,7 +12242,7 @@
       <c r="I74" s="100" t="s">
         <v>269</v>
       </c>
-      <c r="J74" s="263"/>
+      <c r="J74" s="275"/>
       <c r="K74" s="42">
         <v>0.27500000000000002</v>
       </c>
@@ -12279,10 +12279,10 @@
       <c r="D75" s="211">
         <v>6</v>
       </c>
-      <c r="E75" s="257" t="s">
+      <c r="E75" s="247" t="s">
         <v>150</v>
       </c>
-      <c r="F75" s="258"/>
+      <c r="F75" s="248"/>
       <c r="G75" s="98" t="s">
         <v>236</v>
       </c>
@@ -12292,7 +12292,7 @@
       <c r="I75" s="100" t="s">
         <v>269</v>
       </c>
-      <c r="J75" s="264"/>
+      <c r="J75" s="276"/>
       <c r="K75" s="32">
         <v>0.16500000000000001</v>
       </c>
@@ -12328,16 +12328,16 @@
       <c r="C76" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="250" t="s">
+      <c r="D76" s="272" t="s">
         <v>151</v>
       </c>
-      <c r="E76" s="251"/>
-      <c r="F76" s="251"/>
-      <c r="G76" s="251"/>
-      <c r="H76" s="251"/>
-      <c r="I76" s="251"/>
-      <c r="J76" s="251"/>
-      <c r="K76" s="252"/>
+      <c r="E76" s="273"/>
+      <c r="F76" s="273"/>
+      <c r="G76" s="273"/>
+      <c r="H76" s="273"/>
+      <c r="I76" s="273"/>
+      <c r="J76" s="273"/>
+      <c r="K76" s="274"/>
       <c r="L76" s="40"/>
       <c r="M76" s="66"/>
       <c r="N76" s="40"/>
@@ -12357,10 +12357,10 @@
       <c r="D77" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E77" s="257" t="s">
+      <c r="E77" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="F77" s="258"/>
+      <c r="F77" s="248"/>
       <c r="G77" s="98" t="s">
         <v>237</v>
       </c>
@@ -12407,10 +12407,10 @@
       <c r="D78" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="E78" s="257" t="s">
+      <c r="E78" s="247" t="s">
         <v>50</v>
       </c>
-      <c r="F78" s="258"/>
+      <c r="F78" s="248"/>
       <c r="G78" s="98" t="s">
         <v>238</v>
       </c>
@@ -12457,10 +12457,10 @@
       <c r="D79" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="257" t="s">
+      <c r="E79" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="F79" s="258"/>
+      <c r="F79" s="248"/>
       <c r="G79" s="98" t="s">
         <v>239</v>
       </c>
@@ -12507,10 +12507,10 @@
       <c r="D80" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="257" t="s">
+      <c r="E80" s="247" t="s">
         <v>51</v>
       </c>
-      <c r="F80" s="258"/>
+      <c r="F80" s="248"/>
       <c r="G80" s="98" t="s">
         <v>240</v>
       </c>
@@ -12556,10 +12556,10 @@
       <c r="D81" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="E81" s="257" t="s">
+      <c r="E81" s="247" t="s">
         <v>192</v>
       </c>
-      <c r="F81" s="258"/>
+      <c r="F81" s="248"/>
       <c r="G81" s="98" t="s">
         <v>266</v>
       </c>
@@ -12606,10 +12606,10 @@
       <c r="D82" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="257" t="s">
+      <c r="E82" s="247" t="s">
         <v>154</v>
       </c>
-      <c r="F82" s="258"/>
+      <c r="F82" s="248"/>
       <c r="G82" s="98" t="s">
         <v>241</v>
       </c>
@@ -12657,10 +12657,10 @@
       <c r="D83" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="E83" s="257" t="s">
+      <c r="E83" s="247" t="s">
         <v>155</v>
       </c>
-      <c r="F83" s="258"/>
+      <c r="F83" s="248"/>
       <c r="G83" s="98" t="s">
         <v>242</v>
       </c>
@@ -12705,16 +12705,16 @@
       <c r="C84" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="D84" s="250" t="s">
+      <c r="D84" s="272" t="s">
         <v>156</v>
       </c>
-      <c r="E84" s="251"/>
-      <c r="F84" s="251"/>
-      <c r="G84" s="251"/>
-      <c r="H84" s="251"/>
-      <c r="I84" s="251"/>
-      <c r="J84" s="251"/>
-      <c r="K84" s="252"/>
+      <c r="E84" s="273"/>
+      <c r="F84" s="273"/>
+      <c r="G84" s="273"/>
+      <c r="H84" s="273"/>
+      <c r="I84" s="273"/>
+      <c r="J84" s="273"/>
+      <c r="K84" s="274"/>
       <c r="L84" s="40"/>
       <c r="M84" s="66"/>
       <c r="N84" s="40"/>
@@ -12734,10 +12734,10 @@
       <c r="D85" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="E85" s="257" t="s">
+      <c r="E85" s="247" t="s">
         <v>157</v>
       </c>
-      <c r="F85" s="258"/>
+      <c r="F85" s="248"/>
       <c r="G85" s="98" t="s">
         <v>243</v>
       </c>
@@ -12784,10 +12784,10 @@
       <c r="D86" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="E86" s="257" t="s">
+      <c r="E86" s="247" t="s">
         <v>158</v>
       </c>
-      <c r="F86" s="258"/>
+      <c r="F86" s="248"/>
       <c r="G86" s="98" t="s">
         <v>244</v>
       </c>
@@ -12834,10 +12834,10 @@
       <c r="D87" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="E87" s="257" t="s">
+      <c r="E87" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="F87" s="258"/>
+      <c r="F87" s="248"/>
       <c r="G87" s="98" t="s">
         <v>245</v>
       </c>
@@ -12884,10 +12884,10 @@
       <c r="D88" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="E88" s="257" t="s">
+      <c r="E88" s="247" t="s">
         <v>193</v>
       </c>
-      <c r="F88" s="258"/>
+      <c r="F88" s="248"/>
       <c r="G88" s="98" t="s">
         <v>267</v>
       </c>
@@ -12933,10 +12933,10 @@
       <c r="D89" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="E89" s="257" t="s">
+      <c r="E89" s="247" t="s">
         <v>52</v>
       </c>
-      <c r="F89" s="258"/>
+      <c r="F89" s="248"/>
       <c r="G89" s="98" t="s">
         <v>246</v>
       </c>
@@ -12983,10 +12983,10 @@
       <c r="D90" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="E90" s="257" t="s">
+      <c r="E90" s="247" t="s">
         <v>160</v>
       </c>
-      <c r="F90" s="258"/>
+      <c r="F90" s="248"/>
       <c r="G90" s="98" t="s">
         <v>247</v>
       </c>
@@ -13034,10 +13034,10 @@
       <c r="D91" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="E91" s="257" t="s">
+      <c r="E91" s="247" t="s">
         <v>194</v>
       </c>
-      <c r="F91" s="258"/>
+      <c r="F91" s="248"/>
       <c r="G91" s="98" t="s">
         <v>248</v>
       </c>
@@ -13084,10 +13084,10 @@
       <c r="D92" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="E92" s="257" t="s">
+      <c r="E92" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="F92" s="258"/>
+      <c r="F92" s="248"/>
       <c r="G92" s="98" t="s">
         <v>249</v>
       </c>
@@ -13134,10 +13134,10 @@
       <c r="D93" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="E93" s="257" t="s">
+      <c r="E93" s="247" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="258"/>
+      <c r="F93" s="248"/>
       <c r="G93" s="98" t="s">
         <v>268</v>
       </c>
@@ -13184,10 +13184,10 @@
       <c r="D94" s="210" t="s">
         <v>91</v>
       </c>
-      <c r="E94" s="257" t="s">
+      <c r="E94" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="F94" s="258"/>
+      <c r="F94" s="248"/>
       <c r="G94" s="98" t="s">
         <v>250</v>
       </c>
@@ -13234,10 +13234,10 @@
       <c r="D95" s="210" t="s">
         <v>92</v>
       </c>
-      <c r="E95" s="257" t="s">
+      <c r="E95" s="247" t="s">
         <v>163</v>
       </c>
-      <c r="F95" s="258"/>
+      <c r="F95" s="248"/>
       <c r="G95" s="98" t="s">
         <v>251</v>
       </c>
@@ -13282,17 +13282,17 @@
       <c r="B96" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C96" s="250" t="s">
+      <c r="C96" s="272" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="251"/>
-      <c r="E96" s="251"/>
-      <c r="F96" s="251"/>
-      <c r="G96" s="251"/>
-      <c r="H96" s="251"/>
-      <c r="I96" s="251"/>
-      <c r="J96" s="251"/>
-      <c r="K96" s="252"/>
+      <c r="D96" s="273"/>
+      <c r="E96" s="273"/>
+      <c r="F96" s="273"/>
+      <c r="G96" s="273"/>
+      <c r="H96" s="273"/>
+      <c r="I96" s="273"/>
+      <c r="J96" s="273"/>
+      <c r="K96" s="274"/>
       <c r="L96" s="40"/>
       <c r="M96" s="66"/>
       <c r="N96" s="40"/>
@@ -13311,16 +13311,16 @@
       <c r="C97" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="250" t="s">
+      <c r="D97" s="272" t="s">
         <v>820</v>
       </c>
-      <c r="E97" s="251"/>
-      <c r="F97" s="251"/>
-      <c r="G97" s="251"/>
-      <c r="H97" s="251"/>
-      <c r="I97" s="251"/>
-      <c r="J97" s="251"/>
-      <c r="K97" s="252"/>
+      <c r="E97" s="273"/>
+      <c r="F97" s="273"/>
+      <c r="G97" s="273"/>
+      <c r="H97" s="273"/>
+      <c r="I97" s="273"/>
+      <c r="J97" s="273"/>
+      <c r="K97" s="274"/>
       <c r="L97" s="40"/>
       <c r="M97" s="66"/>
       <c r="N97" s="40"/>
@@ -13337,11 +13337,11 @@
       <c r="A98" s="26"/>
       <c r="B98" s="37"/>
       <c r="C98" s="219"/>
-      <c r="D98" s="245" t="s">
+      <c r="D98" s="277" t="s">
         <v>821</v>
       </c>
-      <c r="E98" s="246"/>
-      <c r="F98" s="247"/>
+      <c r="E98" s="278"/>
+      <c r="F98" s="279"/>
       <c r="G98" s="220" t="s">
         <v>822</v>
       </c>
@@ -13382,16 +13382,16 @@
       <c r="C99" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="D99" s="250" t="s">
+      <c r="D99" s="272" t="s">
         <v>59</v>
       </c>
-      <c r="E99" s="251"/>
-      <c r="F99" s="251"/>
-      <c r="G99" s="251"/>
-      <c r="H99" s="251"/>
-      <c r="I99" s="251"/>
-      <c r="J99" s="251"/>
-      <c r="K99" s="252"/>
+      <c r="E99" s="273"/>
+      <c r="F99" s="273"/>
+      <c r="G99" s="273"/>
+      <c r="H99" s="273"/>
+      <c r="I99" s="273"/>
+      <c r="J99" s="273"/>
+      <c r="K99" s="274"/>
       <c r="L99" s="40"/>
       <c r="M99" s="66"/>
       <c r="N99" s="40"/>
@@ -13409,10 +13409,10 @@
       <c r="D100" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E100" s="248" t="s">
+      <c r="E100" s="280" t="s">
         <v>831</v>
       </c>
-      <c r="F100" s="249"/>
+      <c r="F100" s="281"/>
       <c r="G100" s="27"/>
       <c r="H100" s="138"/>
       <c r="I100" s="155"/>
@@ -13587,10 +13587,10 @@
       <c r="D104" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E104" s="248" t="s">
+      <c r="E104" s="280" t="s">
         <v>830</v>
       </c>
-      <c r="F104" s="249"/>
+      <c r="F104" s="281"/>
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="155"/>
@@ -13714,10 +13714,10 @@
       <c r="D107" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E107" s="248" t="s">
+      <c r="E107" s="280" t="s">
         <v>66</v>
       </c>
-      <c r="F107" s="249"/>
+      <c r="F107" s="281"/>
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="155"/>
@@ -13842,10 +13842,10 @@
       <c r="D110" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="E110" s="248" t="s">
+      <c r="E110" s="280" t="s">
         <v>70</v>
       </c>
-      <c r="F110" s="249"/>
+      <c r="F110" s="281"/>
       <c r="G110" s="207"/>
       <c r="H110" s="139"/>
       <c r="I110" s="156"/>
@@ -13969,10 +13969,10 @@
       <c r="D113" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E113" s="245" t="s">
+      <c r="E113" s="277" t="s">
         <v>833</v>
       </c>
-      <c r="F113" s="247"/>
+      <c r="F113" s="279"/>
       <c r="G113" s="40" t="s">
         <v>60</v>
       </c>
@@ -14019,10 +14019,10 @@
       <c r="D114" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E114" s="245" t="s">
+      <c r="E114" s="277" t="s">
         <v>834</v>
       </c>
-      <c r="F114" s="247"/>
+      <c r="F114" s="279"/>
       <c r="G114" s="40" t="s">
         <v>68</v>
       </c>
@@ -14068,16 +14068,16 @@
       <c r="C115" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="D115" s="250" t="s">
+      <c r="D115" s="272" t="s">
         <v>835</v>
       </c>
-      <c r="E115" s="251"/>
-      <c r="F115" s="251"/>
-      <c r="G115" s="251"/>
-      <c r="H115" s="251"/>
-      <c r="I115" s="251"/>
-      <c r="J115" s="251"/>
-      <c r="K115" s="252"/>
+      <c r="E115" s="273"/>
+      <c r="F115" s="273"/>
+      <c r="G115" s="273"/>
+      <c r="H115" s="273"/>
+      <c r="I115" s="273"/>
+      <c r="J115" s="273"/>
+      <c r="K115" s="274"/>
       <c r="L115" s="16"/>
       <c r="M115" s="66"/>
       <c r="N115" s="16"/>
@@ -14096,10 +14096,10 @@
       <c r="D116" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E116" s="248" t="s">
+      <c r="E116" s="280" t="s">
         <v>836</v>
       </c>
-      <c r="F116" s="249"/>
+      <c r="F116" s="281"/>
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="155"/>
@@ -14224,10 +14224,10 @@
       <c r="D119" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E119" s="248" t="s">
+      <c r="E119" s="280" t="s">
         <v>838</v>
       </c>
-      <c r="F119" s="249"/>
+      <c r="F119" s="281"/>
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="155"/>
@@ -14350,16 +14350,16 @@
       <c r="C122" s="226" t="s">
         <v>839</v>
       </c>
-      <c r="D122" s="250" t="s">
+      <c r="D122" s="272" t="s">
         <v>840</v>
       </c>
-      <c r="E122" s="251"/>
-      <c r="F122" s="251"/>
-      <c r="G122" s="251"/>
-      <c r="H122" s="251"/>
-      <c r="I122" s="251"/>
-      <c r="J122" s="251"/>
-      <c r="K122" s="252"/>
+      <c r="E122" s="273"/>
+      <c r="F122" s="273"/>
+      <c r="G122" s="273"/>
+      <c r="H122" s="273"/>
+      <c r="I122" s="273"/>
+      <c r="J122" s="273"/>
+      <c r="K122" s="274"/>
       <c r="L122" s="16"/>
       <c r="M122" s="66"/>
       <c r="N122" s="16"/>
@@ -14381,10 +14381,10 @@
       <c r="D123" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E123" s="248" t="s">
+      <c r="E123" s="280" t="s">
         <v>841</v>
       </c>
-      <c r="F123" s="249"/>
+      <c r="F123" s="281"/>
       <c r="G123" s="125" t="s">
         <v>55</v>
       </c>
@@ -14430,16 +14430,16 @@
       <c r="C124" s="226" t="s">
         <v>78</v>
       </c>
-      <c r="D124" s="250" t="s">
+      <c r="D124" s="272" t="s">
         <v>842</v>
       </c>
-      <c r="E124" s="251"/>
-      <c r="F124" s="251"/>
-      <c r="G124" s="251"/>
-      <c r="H124" s="251"/>
-      <c r="I124" s="251"/>
-      <c r="J124" s="251"/>
-      <c r="K124" s="252"/>
+      <c r="E124" s="273"/>
+      <c r="F124" s="273"/>
+      <c r="G124" s="273"/>
+      <c r="H124" s="273"/>
+      <c r="I124" s="273"/>
+      <c r="J124" s="273"/>
+      <c r="K124" s="274"/>
       <c r="L124" s="16"/>
       <c r="M124" s="66"/>
       <c r="N124" s="16"/>
@@ -14458,10 +14458,10 @@
       <c r="D125" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E125" s="248" t="s">
+      <c r="E125" s="280" t="s">
         <v>843</v>
       </c>
-      <c r="F125" s="249"/>
+      <c r="F125" s="281"/>
       <c r="G125" s="125" t="s">
         <v>844</v>
       </c>
@@ -14508,10 +14508,10 @@
       <c r="D126" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E126" s="245" t="s">
+      <c r="E126" s="277" t="s">
         <v>845</v>
       </c>
-      <c r="F126" s="247"/>
+      <c r="F126" s="279"/>
       <c r="G126" s="125"/>
       <c r="H126" s="40"/>
       <c r="I126" s="38"/>
@@ -14688,10 +14688,10 @@
       <c r="D130" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E130" s="245" t="s">
+      <c r="E130" s="277" t="s">
         <v>848</v>
       </c>
-      <c r="F130" s="247"/>
+      <c r="F130" s="279"/>
       <c r="G130" s="125"/>
       <c r="H130" s="40" t="s">
         <v>27</v>
@@ -15076,10 +15076,10 @@
       <c r="D138" s="44" t="s">
         <v>857</v>
       </c>
-      <c r="E138" s="245" t="s">
+      <c r="E138" s="277" t="s">
         <v>858</v>
       </c>
-      <c r="F138" s="246"/>
+      <c r="F138" s="278"/>
       <c r="G138" s="40"/>
       <c r="H138" s="125"/>
       <c r="I138" s="38"/>
@@ -15462,10 +15462,10 @@
       <c r="D146" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E146" s="255" t="s">
+      <c r="E146" s="284" t="s">
         <v>859</v>
       </c>
-      <c r="F146" s="256"/>
+      <c r="F146" s="285"/>
       <c r="G146" s="40" t="s">
         <v>844</v>
       </c>
@@ -15511,16 +15511,16 @@
       <c r="C147" s="226" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="250" t="s">
+      <c r="D147" s="272" t="s">
         <v>860</v>
       </c>
-      <c r="E147" s="251"/>
-      <c r="F147" s="251"/>
-      <c r="G147" s="251"/>
-      <c r="H147" s="251"/>
-      <c r="I147" s="251"/>
-      <c r="J147" s="251"/>
-      <c r="K147" s="252"/>
+      <c r="E147" s="273"/>
+      <c r="F147" s="273"/>
+      <c r="G147" s="273"/>
+      <c r="H147" s="273"/>
+      <c r="I147" s="273"/>
+      <c r="J147" s="273"/>
+      <c r="K147" s="274"/>
       <c r="L147" s="16"/>
       <c r="M147" s="66"/>
       <c r="N147" s="16"/>
@@ -15539,10 +15539,10 @@
       <c r="D148" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E148" s="245" t="s">
+      <c r="E148" s="277" t="s">
         <v>861</v>
       </c>
-      <c r="F148" s="246"/>
+      <c r="F148" s="278"/>
       <c r="G148" s="40" t="s">
         <v>844</v>
       </c>
@@ -15589,10 +15589,10 @@
       <c r="D149" s="44" t="s">
         <v>862</v>
       </c>
-      <c r="E149" s="245" t="s">
+      <c r="E149" s="277" t="s">
         <v>863</v>
       </c>
-      <c r="F149" s="246"/>
+      <c r="F149" s="278"/>
       <c r="G149" s="40" t="s">
         <v>844</v>
       </c>
@@ -15639,10 +15639,10 @@
       <c r="D150" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E150" s="245" t="s">
+      <c r="E150" s="277" t="s">
         <v>864</v>
       </c>
-      <c r="F150" s="246"/>
+      <c r="F150" s="278"/>
       <c r="G150" s="40" t="s">
         <v>49</v>
       </c>
@@ -15689,10 +15689,10 @@
       <c r="D151" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E151" s="245" t="s">
+      <c r="E151" s="277" t="s">
         <v>865</v>
       </c>
-      <c r="F151" s="246"/>
+      <c r="F151" s="278"/>
       <c r="G151" s="40" t="s">
         <v>49</v>
       </c>
@@ -15739,10 +15739,10 @@
       <c r="D152" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E152" s="245" t="s">
+      <c r="E152" s="277" t="s">
         <v>866</v>
       </c>
-      <c r="F152" s="246"/>
+      <c r="F152" s="278"/>
       <c r="G152" s="40" t="s">
         <v>49</v>
       </c>
@@ -15789,10 +15789,10 @@
       <c r="D153" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E153" s="245" t="s">
+      <c r="E153" s="277" t="s">
         <v>867</v>
       </c>
-      <c r="F153" s="246"/>
+      <c r="F153" s="278"/>
       <c r="G153" s="40" t="s">
         <v>49</v>
       </c>
@@ -15839,10 +15839,10 @@
       <c r="D154" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="E154" s="245" t="s">
+      <c r="E154" s="277" t="s">
         <v>868</v>
       </c>
-      <c r="F154" s="246"/>
+      <c r="F154" s="278"/>
       <c r="G154" s="40" t="s">
         <v>77</v>
       </c>
@@ -15889,10 +15889,10 @@
       <c r="D155" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="E155" s="245" t="s">
+      <c r="E155" s="277" t="s">
         <v>870</v>
       </c>
-      <c r="F155" s="246"/>
+      <c r="F155" s="278"/>
       <c r="G155" s="40" t="s">
         <v>871</v>
       </c>
@@ -15939,10 +15939,10 @@
       <c r="D156" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="E156" s="245" t="s">
+      <c r="E156" s="277" t="s">
         <v>872</v>
       </c>
-      <c r="F156" s="246"/>
+      <c r="F156" s="278"/>
       <c r="G156" s="40" t="s">
         <v>33</v>
       </c>
@@ -15986,17 +15986,17 @@
       <c r="B157" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C157" s="250" t="s">
+      <c r="C157" s="272" t="s">
         <v>74</v>
       </c>
-      <c r="D157" s="251"/>
-      <c r="E157" s="251"/>
-      <c r="F157" s="251"/>
-      <c r="G157" s="251"/>
-      <c r="H157" s="251"/>
-      <c r="I157" s="251"/>
-      <c r="J157" s="251"/>
-      <c r="K157" s="252"/>
+      <c r="D157" s="273"/>
+      <c r="E157" s="273"/>
+      <c r="F157" s="273"/>
+      <c r="G157" s="273"/>
+      <c r="H157" s="273"/>
+      <c r="I157" s="273"/>
+      <c r="J157" s="273"/>
+      <c r="K157" s="274"/>
       <c r="L157" s="16"/>
       <c r="M157" s="66"/>
       <c r="N157" s="16"/>
@@ -16015,16 +16015,16 @@
       <c r="C158" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="D158" s="250" t="s">
+      <c r="D158" s="272" t="s">
         <v>75</v>
       </c>
-      <c r="E158" s="251"/>
-      <c r="F158" s="251"/>
-      <c r="G158" s="251"/>
-      <c r="H158" s="251"/>
-      <c r="I158" s="251"/>
-      <c r="J158" s="251"/>
-      <c r="K158" s="252"/>
+      <c r="E158" s="273"/>
+      <c r="F158" s="273"/>
+      <c r="G158" s="273"/>
+      <c r="H158" s="273"/>
+      <c r="I158" s="273"/>
+      <c r="J158" s="273"/>
+      <c r="K158" s="274"/>
       <c r="L158" s="16"/>
       <c r="M158" s="66"/>
       <c r="N158" s="16"/>
@@ -16042,10 +16042,10 @@
       <c r="D159" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="E159" s="253" t="s">
+      <c r="E159" s="259" t="s">
         <v>873</v>
       </c>
-      <c r="F159" s="254"/>
+      <c r="F159" s="260"/>
       <c r="G159" s="134" t="s">
         <v>895</v>
       </c>
@@ -16091,16 +16091,16 @@
       <c r="C160" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="D160" s="250" t="s">
+      <c r="D160" s="272" t="s">
         <v>874</v>
       </c>
-      <c r="E160" s="251"/>
-      <c r="F160" s="251"/>
-      <c r="G160" s="251"/>
-      <c r="H160" s="251"/>
-      <c r="I160" s="251"/>
-      <c r="J160" s="251"/>
-      <c r="K160" s="252"/>
+      <c r="E160" s="273"/>
+      <c r="F160" s="273"/>
+      <c r="G160" s="273"/>
+      <c r="H160" s="273"/>
+      <c r="I160" s="273"/>
+      <c r="J160" s="273"/>
+      <c r="K160" s="274"/>
       <c r="L160" s="16"/>
       <c r="M160" s="66"/>
       <c r="N160" s="16"/>
@@ -16120,10 +16120,10 @@
       <c r="D161" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E161" s="248" t="s">
+      <c r="E161" s="280" t="s">
         <v>875</v>
       </c>
-      <c r="F161" s="249"/>
+      <c r="F161" s="281"/>
       <c r="G161" s="27" t="s">
         <v>49</v>
       </c>
@@ -16168,16 +16168,16 @@
       <c r="C162" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="D162" s="250" t="s">
+      <c r="D162" s="272" t="s">
         <v>876</v>
       </c>
-      <c r="E162" s="251"/>
-      <c r="F162" s="251"/>
-      <c r="G162" s="251"/>
-      <c r="H162" s="251"/>
-      <c r="I162" s="251"/>
-      <c r="J162" s="251"/>
-      <c r="K162" s="252"/>
+      <c r="E162" s="273"/>
+      <c r="F162" s="273"/>
+      <c r="G162" s="273"/>
+      <c r="H162" s="273"/>
+      <c r="I162" s="273"/>
+      <c r="J162" s="273"/>
+      <c r="K162" s="274"/>
       <c r="L162" s="16"/>
       <c r="M162" s="66"/>
       <c r="N162" s="16"/>
@@ -16197,10 +16197,10 @@
       <c r="D163" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E163" s="245" t="s">
+      <c r="E163" s="277" t="s">
         <v>80</v>
       </c>
-      <c r="F163" s="247"/>
+      <c r="F163" s="279"/>
       <c r="G163" s="40"/>
       <c r="H163" s="40"/>
       <c r="I163" s="38"/>
@@ -16383,10 +16383,10 @@
       <c r="D167" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E167" s="245" t="s">
+      <c r="E167" s="277" t="s">
         <v>877</v>
       </c>
-      <c r="F167" s="247"/>
+      <c r="F167" s="279"/>
       <c r="G167" s="40"/>
       <c r="H167" s="40"/>
       <c r="I167" s="38"/>
@@ -16549,16 +16549,16 @@
       <c r="C171" s="229" t="s">
         <v>56</v>
       </c>
-      <c r="D171" s="250" t="s">
+      <c r="D171" s="272" t="s">
         <v>85</v>
       </c>
-      <c r="E171" s="251"/>
-      <c r="F171" s="251"/>
-      <c r="G171" s="251"/>
-      <c r="H171" s="251"/>
-      <c r="I171" s="251"/>
-      <c r="J171" s="251"/>
-      <c r="K171" s="252"/>
+      <c r="E171" s="273"/>
+      <c r="F171" s="273"/>
+      <c r="G171" s="273"/>
+      <c r="H171" s="273"/>
+      <c r="I171" s="273"/>
+      <c r="J171" s="273"/>
+      <c r="K171" s="274"/>
       <c r="L171" s="16"/>
       <c r="M171" s="66"/>
       <c r="N171" s="16"/>
@@ -16577,14 +16577,14 @@
       <c r="D172" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E172" s="245" t="s">
+      <c r="E172" s="277" t="s">
         <v>887</v>
       </c>
-      <c r="F172" s="247"/>
+      <c r="F172" s="279"/>
       <c r="G172" s="40"/>
       <c r="H172" s="27"/>
       <c r="I172" s="155"/>
-      <c r="J172" s="263"/>
+      <c r="J172" s="275"/>
       <c r="K172" s="84"/>
       <c r="L172" s="16"/>
       <c r="M172" s="66"/>
@@ -16627,7 +16627,7 @@
       <c r="I173" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="J173" s="264"/>
+      <c r="J173" s="276"/>
       <c r="K173" s="32">
         <v>5</v>
       </c>
@@ -16678,7 +16678,7 @@
       <c r="I174" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="J174" s="264"/>
+      <c r="J174" s="276"/>
       <c r="K174" s="32">
         <v>10</v>
       </c>
@@ -16729,7 +16729,7 @@
       <c r="I175" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="J175" s="265"/>
+      <c r="J175" s="283"/>
       <c r="K175" s="35">
         <v>15</v>
       </c>
@@ -16765,16 +16765,16 @@
       <c r="C176" s="208" t="s">
         <v>78</v>
       </c>
-      <c r="D176" s="250" t="s">
+      <c r="D176" s="272" t="s">
         <v>888</v>
       </c>
-      <c r="E176" s="251"/>
-      <c r="F176" s="251"/>
-      <c r="G176" s="251"/>
-      <c r="H176" s="251"/>
-      <c r="I176" s="251"/>
-      <c r="J176" s="251"/>
-      <c r="K176" s="252"/>
+      <c r="E176" s="273"/>
+      <c r="F176" s="273"/>
+      <c r="G176" s="273"/>
+      <c r="H176" s="273"/>
+      <c r="I176" s="273"/>
+      <c r="J176" s="273"/>
+      <c r="K176" s="274"/>
       <c r="L176" s="16"/>
       <c r="M176" s="66"/>
       <c r="N176" s="16"/>
@@ -16793,10 +16793,10 @@
       <c r="D177" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E177" s="248" t="s">
+      <c r="E177" s="280" t="s">
         <v>889</v>
       </c>
-      <c r="F177" s="249"/>
+      <c r="F177" s="281"/>
       <c r="G177" s="27" t="s">
         <v>890</v>
       </c>
@@ -16843,10 +16843,10 @@
       <c r="D178" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E178" s="248" t="s">
+      <c r="E178" s="280" t="s">
         <v>892</v>
       </c>
-      <c r="F178" s="249"/>
+      <c r="F178" s="281"/>
       <c r="G178" s="27" t="s">
         <v>871</v>
       </c>
@@ -16893,10 +16893,10 @@
       <c r="D179" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E179" s="245" t="s">
+      <c r="E179" s="277" t="s">
         <v>893</v>
       </c>
-      <c r="F179" s="247"/>
+      <c r="F179" s="279"/>
       <c r="G179" s="40" t="s">
         <v>871</v>
       </c>
@@ -16969,15 +16969,15 @@
     <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
-      <c r="C182" s="262"/>
-      <c r="D182" s="262"/>
-      <c r="E182" s="262"/>
-      <c r="F182" s="262"/>
-      <c r="G182" s="262"/>
-      <c r="H182" s="262"/>
-      <c r="I182" s="262"/>
-      <c r="J182" s="262"/>
-      <c r="K182" s="262"/>
+      <c r="C182" s="282"/>
+      <c r="D182" s="282"/>
+      <c r="E182" s="282"/>
+      <c r="F182" s="282"/>
+      <c r="G182" s="282"/>
+      <c r="H182" s="282"/>
+      <c r="I182" s="282"/>
+      <c r="J182" s="282"/>
+      <c r="K182" s="282"/>
       <c r="L182" s="77"/>
       <c r="M182" s="78"/>
       <c r="N182" s="77"/>
@@ -17005,38 +17005,99 @@
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="D97:K97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D122:K122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="D124:K124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="C157:K157"/>
+    <mergeCell ref="D158:K158"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="D160:K160"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="D147:K147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C68:K68"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D84:K84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="D69:K69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C182:K182"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="J172:J175"/>
+    <mergeCell ref="D176:K176"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="D162:K162"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="D171:K171"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="D115:K115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="C96:K96"/>
+    <mergeCell ref="D99:K99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="D76:K76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="D57:K57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
@@ -17061,99 +17122,38 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="D57:K57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="D76:K76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="D115:K115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="C96:K96"/>
-    <mergeCell ref="D99:K99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="C182:K182"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="J172:J175"/>
-    <mergeCell ref="D176:K176"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="D162:K162"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="D171:K171"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C68:K68"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D84:K84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="D69:K69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="D97:K97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D122:K122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="D124:K124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="C157:K157"/>
-    <mergeCell ref="D158:K158"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="D160:K160"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="D147:K147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -17175,8 +17175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88:F88"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18285,27 +18285,27 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="266" t="s">
+      <c r="B1" s="264" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="266"/>
-      <c r="O1" s="266"/>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
-      <c r="S1" s="266"/>
-      <c r="T1" s="266"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="264"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="264"/>
+      <c r="P1" s="264"/>
+      <c r="Q1" s="264"/>
+      <c r="R1" s="264"/>
+      <c r="S1" s="264"/>
+      <c r="T1" s="264"/>
       <c r="V1" s="116" t="s">
         <v>909</v>
       </c>
@@ -18323,27 +18323,27 @@
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="291" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-      <c r="I2" s="304"/>
-      <c r="J2" s="304"/>
-      <c r="K2" s="304"/>
-      <c r="L2" s="304"/>
-      <c r="M2" s="304"/>
-      <c r="N2" s="304"/>
-      <c r="O2" s="304"/>
-      <c r="P2" s="304"/>
-      <c r="Q2" s="304"/>
-      <c r="R2" s="304"/>
-      <c r="S2" s="304"/>
-      <c r="T2" s="304"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="291"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
+      <c r="Q2" s="291"/>
+      <c r="R2" s="291"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
       <c r="V2" s="163"/>
       <c r="W2" s="163"/>
       <c r="X2" s="163"/>
@@ -18563,45 +18563,45 @@
     </row>
     <row r="8" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="301" t="s">
+      <c r="B8" s="288" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="301"/>
-      <c r="D8" s="301"/>
-      <c r="E8" s="301"/>
-      <c r="F8" s="301"/>
-      <c r="G8" s="302" t="s">
+      <c r="C8" s="288"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288"/>
+      <c r="G8" s="289" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="302" t="s">
+      <c r="H8" s="289" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="302" t="s">
+      <c r="I8" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="305" t="s">
+      <c r="J8" s="292" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="301" t="s">
+      <c r="K8" s="288" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="301"/>
-      <c r="M8" s="301" t="s">
+      <c r="L8" s="288"/>
+      <c r="M8" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="301"/>
-      <c r="O8" s="301" t="s">
+      <c r="N8" s="288"/>
+      <c r="O8" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="301"/>
-      <c r="Q8" s="302" t="s">
+      <c r="P8" s="288"/>
+      <c r="Q8" s="289" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="301" t="s">
+      <c r="R8" s="288" t="s">
         <v>97</v>
       </c>
-      <c r="S8" s="301"/>
-      <c r="T8" s="302" t="s">
+      <c r="S8" s="288"/>
+      <c r="T8" s="289" t="s">
         <v>22</v>
       </c>
       <c r="U8" s="11"/>
@@ -18630,15 +18630,15 @@
     </row>
     <row r="9" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="301"/>
-      <c r="C9" s="301"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="302"/>
-      <c r="H9" s="302"/>
-      <c r="I9" s="302"/>
-      <c r="J9" s="305"/>
+      <c r="B9" s="288"/>
+      <c r="C9" s="288"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="288"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="289"/>
+      <c r="J9" s="292"/>
       <c r="K9" s="103" t="s">
         <v>23</v>
       </c>
@@ -18657,14 +18657,14 @@
       <c r="P9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="302"/>
+      <c r="Q9" s="289"/>
       <c r="R9" s="103" t="s">
         <v>23</v>
       </c>
       <c r="S9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="302"/>
+      <c r="T9" s="289"/>
       <c r="U9" s="11"/>
       <c r="V9" s="163"/>
       <c r="W9" s="163"/>
@@ -18681,13 +18681,13 @@
     </row>
     <row r="10" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="303">
+      <c r="B10" s="290">
         <v>-1</v>
       </c>
-      <c r="C10" s="303"/>
-      <c r="D10" s="303"/>
-      <c r="E10" s="303"/>
-      <c r="F10" s="303"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
       <c r="G10" s="142">
         <v>-2</v>
       </c>
@@ -18748,16 +18748,16 @@
       <c r="B11" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="297" t="s">
+      <c r="C11" s="293" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="298"/>
-      <c r="E11" s="298"/>
-      <c r="F11" s="298"/>
-      <c r="G11" s="298"/>
-      <c r="H11" s="298"/>
-      <c r="I11" s="298"/>
-      <c r="J11" s="298"/>
+      <c r="D11" s="294"/>
+      <c r="E11" s="294"/>
+      <c r="F11" s="294"/>
+      <c r="G11" s="294"/>
+      <c r="H11" s="294"/>
+      <c r="I11" s="294"/>
+      <c r="J11" s="294"/>
       <c r="K11" s="18"/>
       <c r="L11" s="16"/>
       <c r="M11" s="18"/>
@@ -18792,15 +18792,15 @@
       <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="299" t="s">
+      <c r="D12" s="295" t="s">
         <v>273</v>
       </c>
-      <c r="E12" s="300"/>
-      <c r="F12" s="300"/>
-      <c r="G12" s="300"/>
-      <c r="H12" s="300"/>
-      <c r="I12" s="300"/>
-      <c r="J12" s="300"/>
+      <c r="E12" s="296"/>
+      <c r="F12" s="296"/>
+      <c r="G12" s="296"/>
+      <c r="H12" s="296"/>
+      <c r="I12" s="296"/>
+      <c r="J12" s="296"/>
       <c r="K12" s="18"/>
       <c r="L12" s="16"/>
       <c r="M12" s="18"/>
@@ -18848,10 +18848,10 @@
       <c r="D13" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="293" t="s">
+      <c r="E13" s="286" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="294"/>
+      <c r="F13" s="287"/>
       <c r="G13" s="143" t="s">
         <v>506</v>
       </c>
@@ -18926,10 +18926,10 @@
       <c r="D14" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="293" t="s">
+      <c r="E14" s="286" t="s">
         <v>275</v>
       </c>
-      <c r="F14" s="294"/>
+      <c r="F14" s="287"/>
       <c r="G14" s="143" t="s">
         <v>507</v>
       </c>
@@ -19005,10 +19005,10 @@
       <c r="D15" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="293" t="s">
+      <c r="E15" s="286" t="s">
         <v>276</v>
       </c>
-      <c r="F15" s="294"/>
+      <c r="F15" s="287"/>
       <c r="G15" s="143" t="s">
         <v>508</v>
       </c>
@@ -19082,10 +19082,10 @@
       <c r="D16" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="293" t="s">
+      <c r="E16" s="286" t="s">
         <v>277</v>
       </c>
-      <c r="F16" s="294"/>
+      <c r="F16" s="287"/>
       <c r="G16" s="143" t="s">
         <v>509</v>
       </c>
@@ -19143,10 +19143,10 @@
       <c r="D17" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="293" t="s">
+      <c r="E17" s="286" t="s">
         <v>278</v>
       </c>
-      <c r="F17" s="294"/>
+      <c r="F17" s="287"/>
       <c r="G17" s="143" t="s">
         <v>510</v>
       </c>
@@ -19221,10 +19221,10 @@
       <c r="D18" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="293" t="s">
+      <c r="E18" s="286" t="s">
         <v>279</v>
       </c>
-      <c r="F18" s="294"/>
+      <c r="F18" s="287"/>
       <c r="G18" s="143" t="s">
         <v>511</v>
       </c>
@@ -19299,10 +19299,10 @@
       <c r="D19" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="293" t="s">
+      <c r="E19" s="286" t="s">
         <v>280</v>
       </c>
-      <c r="F19" s="294"/>
+      <c r="F19" s="287"/>
       <c r="G19" s="143" t="s">
         <v>512</v>
       </c>
@@ -19376,10 +19376,10 @@
       <c r="D20" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="293" t="s">
+      <c r="E20" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="F20" s="294"/>
+      <c r="F20" s="287"/>
       <c r="G20" s="143" t="s">
         <v>513</v>
       </c>
@@ -19437,10 +19437,10 @@
       <c r="D21" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="293" t="s">
+      <c r="E21" s="286" t="s">
         <v>282</v>
       </c>
-      <c r="F21" s="294"/>
+      <c r="F21" s="287"/>
       <c r="G21" s="143" t="s">
         <v>514</v>
       </c>
@@ -19512,10 +19512,10 @@
       <c r="D22" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="293" t="s">
+      <c r="E22" s="286" t="s">
         <v>463</v>
       </c>
-      <c r="F22" s="294"/>
+      <c r="F22" s="287"/>
       <c r="G22" s="143" t="s">
         <v>682</v>
       </c>
@@ -19593,10 +19593,10 @@
       <c r="D23" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="293" t="s">
+      <c r="E23" s="286" t="s">
         <v>464</v>
       </c>
-      <c r="F23" s="294"/>
+      <c r="F23" s="287"/>
       <c r="G23" s="143" t="s">
         <v>683</v>
       </c>
@@ -19642,10 +19642,10 @@
       <c r="D24" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="293" t="s">
+      <c r="E24" s="286" t="s">
         <v>465</v>
       </c>
-      <c r="F24" s="294"/>
+      <c r="F24" s="287"/>
       <c r="G24" s="143" t="s">
         <v>684</v>
       </c>
@@ -19691,10 +19691,10 @@
       <c r="D25" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="293" t="s">
+      <c r="E25" s="286" t="s">
         <v>466</v>
       </c>
-      <c r="F25" s="294"/>
+      <c r="F25" s="287"/>
       <c r="G25" s="143" t="s">
         <v>685</v>
       </c>
@@ -19740,10 +19740,10 @@
       <c r="D26" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="293" t="s">
+      <c r="E26" s="286" t="s">
         <v>467</v>
       </c>
-      <c r="F26" s="294"/>
+      <c r="F26" s="287"/>
       <c r="G26" s="143" t="s">
         <v>686</v>
       </c>
@@ -19789,10 +19789,10 @@
       <c r="D27" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="293" t="s">
+      <c r="E27" s="286" t="s">
         <v>468</v>
       </c>
-      <c r="F27" s="294"/>
+      <c r="F27" s="287"/>
       <c r="G27" s="143" t="s">
         <v>687</v>
       </c>
@@ -19838,10 +19838,10 @@
       <c r="D28" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="293" t="s">
+      <c r="E28" s="286" t="s">
         <v>469</v>
       </c>
-      <c r="F28" s="294"/>
+      <c r="F28" s="287"/>
       <c r="G28" s="143" t="s">
         <v>688</v>
       </c>
@@ -19887,10 +19887,10 @@
       <c r="D29" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="293" t="s">
+      <c r="E29" s="286" t="s">
         <v>470</v>
       </c>
-      <c r="F29" s="294"/>
+      <c r="F29" s="287"/>
       <c r="G29" s="143" t="s">
         <v>689</v>
       </c>
@@ -19936,10 +19936,10 @@
       <c r="D30" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="293" t="s">
+      <c r="E30" s="286" t="s">
         <v>283</v>
       </c>
-      <c r="F30" s="294"/>
+      <c r="F30" s="287"/>
       <c r="G30" s="143" t="s">
         <v>515</v>
       </c>
@@ -19985,10 +19985,10 @@
       <c r="D31" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="293" t="s">
+      <c r="E31" s="286" t="s">
         <v>284</v>
       </c>
-      <c r="F31" s="294"/>
+      <c r="F31" s="287"/>
       <c r="G31" s="143" t="s">
         <v>516</v>
       </c>
@@ -20034,10 +20034,10 @@
       <c r="D32" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="293" t="s">
+      <c r="E32" s="286" t="s">
         <v>285</v>
       </c>
-      <c r="F32" s="294"/>
+      <c r="F32" s="287"/>
       <c r="G32" s="143" t="s">
         <v>517</v>
       </c>
@@ -20083,10 +20083,10 @@
       <c r="D33" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="293" t="s">
+      <c r="E33" s="286" t="s">
         <v>286</v>
       </c>
-      <c r="F33" s="294"/>
+      <c r="F33" s="287"/>
       <c r="G33" s="143" t="s">
         <v>518</v>
       </c>
@@ -20132,10 +20132,10 @@
       <c r="D34" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="293" t="s">
+      <c r="E34" s="286" t="s">
         <v>287</v>
       </c>
-      <c r="F34" s="294"/>
+      <c r="F34" s="287"/>
       <c r="G34" s="143" t="s">
         <v>519</v>
       </c>
@@ -20181,10 +20181,10 @@
       <c r="D35" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="293" t="s">
+      <c r="E35" s="286" t="s">
         <v>288</v>
       </c>
-      <c r="F35" s="294"/>
+      <c r="F35" s="287"/>
       <c r="G35" s="143" t="s">
         <v>520</v>
       </c>
@@ -20230,10 +20230,10 @@
       <c r="D36" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="293" t="s">
+      <c r="E36" s="286" t="s">
         <v>289</v>
       </c>
-      <c r="F36" s="294"/>
+      <c r="F36" s="287"/>
       <c r="G36" s="143" t="s">
         <v>521</v>
       </c>
@@ -20279,10 +20279,10 @@
       <c r="D37" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="293" t="s">
+      <c r="E37" s="286" t="s">
         <v>290</v>
       </c>
-      <c r="F37" s="294"/>
+      <c r="F37" s="287"/>
       <c r="G37" s="143" t="s">
         <v>522</v>
       </c>
@@ -20328,10 +20328,10 @@
       <c r="D38" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="293" t="s">
+      <c r="E38" s="286" t="s">
         <v>291</v>
       </c>
-      <c r="F38" s="294"/>
+      <c r="F38" s="287"/>
       <c r="G38" s="143" t="s">
         <v>523</v>
       </c>
@@ -20377,10 +20377,10 @@
       <c r="D39" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="293" t="s">
+      <c r="E39" s="286" t="s">
         <v>292</v>
       </c>
-      <c r="F39" s="294"/>
+      <c r="F39" s="287"/>
       <c r="G39" s="143" t="s">
         <v>524</v>
       </c>
@@ -20426,10 +20426,10 @@
       <c r="D40" s="107" t="s">
         <v>343</v>
       </c>
-      <c r="E40" s="293" t="s">
+      <c r="E40" s="286" t="s">
         <v>293</v>
       </c>
-      <c r="F40" s="294"/>
+      <c r="F40" s="287"/>
       <c r="G40" s="143" t="s">
         <v>525</v>
       </c>
@@ -20475,10 +20475,10 @@
       <c r="D41" s="107" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="293" t="s">
+      <c r="E41" s="286" t="s">
         <v>294</v>
       </c>
-      <c r="F41" s="294"/>
+      <c r="F41" s="287"/>
       <c r="G41" s="143" t="s">
         <v>526</v>
       </c>
@@ -20536,10 +20536,10 @@
       <c r="D42" s="107" t="s">
         <v>346</v>
       </c>
-      <c r="E42" s="293" t="s">
+      <c r="E42" s="286" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="294"/>
+      <c r="F42" s="287"/>
       <c r="G42" s="143" t="s">
         <v>527</v>
       </c>
@@ -20585,10 +20585,10 @@
       <c r="D43" s="107" t="s">
         <v>348</v>
       </c>
-      <c r="E43" s="293" t="s">
+      <c r="E43" s="286" t="s">
         <v>296</v>
       </c>
-      <c r="F43" s="294"/>
+      <c r="F43" s="287"/>
       <c r="G43" s="143" t="s">
         <v>528</v>
       </c>
@@ -20634,10 +20634,10 @@
       <c r="D44" s="107" t="s">
         <v>350</v>
       </c>
-      <c r="E44" s="293" t="s">
+      <c r="E44" s="286" t="s">
         <v>297</v>
       </c>
-      <c r="F44" s="294"/>
+      <c r="F44" s="287"/>
       <c r="G44" s="143" t="s">
         <v>529</v>
       </c>
@@ -20683,10 +20683,10 @@
       <c r="D45" s="107" t="s">
         <v>352</v>
       </c>
-      <c r="E45" s="293" t="s">
+      <c r="E45" s="286" t="s">
         <v>298</v>
       </c>
-      <c r="F45" s="294"/>
+      <c r="F45" s="287"/>
       <c r="G45" s="143" t="s">
         <v>530</v>
       </c>
@@ -20732,10 +20732,10 @@
       <c r="D46" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="E46" s="293" t="s">
+      <c r="E46" s="286" t="s">
         <v>299</v>
       </c>
-      <c r="F46" s="294"/>
+      <c r="F46" s="287"/>
       <c r="G46" s="143" t="s">
         <v>531</v>
       </c>
@@ -20781,10 +20781,10 @@
       <c r="D47" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="E47" s="293" t="s">
+      <c r="E47" s="286" t="s">
         <v>300</v>
       </c>
-      <c r="F47" s="294"/>
+      <c r="F47" s="287"/>
       <c r="G47" s="143" t="s">
         <v>532</v>
       </c>
@@ -20830,10 +20830,10 @@
       <c r="D48" s="107" t="s">
         <v>358</v>
       </c>
-      <c r="E48" s="293" t="s">
+      <c r="E48" s="286" t="s">
         <v>301</v>
       </c>
-      <c r="F48" s="294"/>
+      <c r="F48" s="287"/>
       <c r="G48" s="143" t="s">
         <v>533</v>
       </c>
@@ -20879,10 +20879,10 @@
       <c r="D49" s="107" t="s">
         <v>359</v>
       </c>
-      <c r="E49" s="293" t="s">
+      <c r="E49" s="286" t="s">
         <v>302</v>
       </c>
-      <c r="F49" s="294"/>
+      <c r="F49" s="287"/>
       <c r="G49" s="143" t="s">
         <v>534</v>
       </c>
@@ -20926,15 +20926,15 @@
       <c r="C50" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="278" t="s">
+      <c r="D50" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="279"/>
-      <c r="F50" s="279"/>
-      <c r="G50" s="279"/>
-      <c r="H50" s="279"/>
-      <c r="I50" s="279"/>
-      <c r="J50" s="279"/>
+      <c r="E50" s="250"/>
+      <c r="F50" s="250"/>
+      <c r="G50" s="250"/>
+      <c r="H50" s="250"/>
+      <c r="I50" s="250"/>
+      <c r="J50" s="250"/>
       <c r="K50" s="18"/>
       <c r="L50" s="16"/>
       <c r="M50" s="18"/>
@@ -20965,10 +20965,10 @@
       <c r="D51" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="293" t="s">
+      <c r="E51" s="286" t="s">
         <v>303</v>
       </c>
-      <c r="F51" s="294"/>
+      <c r="F51" s="287"/>
       <c r="G51" s="143" t="s">
         <v>535</v>
       </c>
@@ -21015,10 +21015,10 @@
       <c r="D52" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="293" t="s">
+      <c r="E52" s="286" t="s">
         <v>304</v>
       </c>
-      <c r="F52" s="294"/>
+      <c r="F52" s="287"/>
       <c r="G52" s="143" t="s">
         <v>536</v>
       </c>
@@ -21065,10 +21065,10 @@
       <c r="D53" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="293" t="s">
+      <c r="E53" s="286" t="s">
         <v>305</v>
       </c>
-      <c r="F53" s="294"/>
+      <c r="F53" s="287"/>
       <c r="G53" s="143" t="s">
         <v>537</v>
       </c>
@@ -21127,10 +21127,10 @@
       <c r="D54" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="293" t="s">
+      <c r="E54" s="286" t="s">
         <v>306</v>
       </c>
-      <c r="F54" s="294"/>
+      <c r="F54" s="287"/>
       <c r="G54" s="143" t="s">
         <v>538</v>
       </c>
@@ -21188,10 +21188,10 @@
       <c r="D55" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="293" t="s">
+      <c r="E55" s="286" t="s">
         <v>307</v>
       </c>
-      <c r="F55" s="294"/>
+      <c r="F55" s="287"/>
       <c r="G55" s="143" t="s">
         <v>539</v>
       </c>
@@ -21249,10 +21249,10 @@
       <c r="D56" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="293" t="s">
+      <c r="E56" s="286" t="s">
         <v>471</v>
       </c>
-      <c r="F56" s="294"/>
+      <c r="F56" s="287"/>
       <c r="G56" s="143" t="s">
         <v>690</v>
       </c>
@@ -21309,10 +21309,10 @@
       <c r="D57" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="293" t="s">
+      <c r="E57" s="286" t="s">
         <v>308</v>
       </c>
-      <c r="F57" s="294"/>
+      <c r="F57" s="287"/>
       <c r="G57" s="143" t="s">
         <v>540</v>
       </c>
@@ -21359,10 +21359,10 @@
       <c r="D58" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="293" t="s">
+      <c r="E58" s="286" t="s">
         <v>309</v>
       </c>
-      <c r="F58" s="294"/>
+      <c r="F58" s="287"/>
       <c r="G58" s="143" t="s">
         <v>541</v>
       </c>
@@ -21409,10 +21409,10 @@
       <c r="D59" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="E59" s="293" t="s">
+      <c r="E59" s="286" t="s">
         <v>310</v>
       </c>
-      <c r="F59" s="294"/>
+      <c r="F59" s="287"/>
       <c r="G59" s="143" t="s">
         <v>542</v>
       </c>
@@ -21471,10 +21471,10 @@
       <c r="D60" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="293" t="s">
+      <c r="E60" s="286" t="s">
         <v>311</v>
       </c>
-      <c r="F60" s="294"/>
+      <c r="F60" s="287"/>
       <c r="G60" s="143" t="s">
         <v>543</v>
       </c>
@@ -21533,10 +21533,10 @@
       <c r="D61" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="E61" s="293" t="s">
+      <c r="E61" s="286" t="s">
         <v>312</v>
       </c>
-      <c r="F61" s="294"/>
+      <c r="F61" s="287"/>
       <c r="G61" s="143" t="s">
         <v>544</v>
       </c>
@@ -21595,10 +21595,10 @@
       <c r="D62" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="E62" s="293" t="s">
+      <c r="E62" s="286" t="s">
         <v>472</v>
       </c>
-      <c r="F62" s="294"/>
+      <c r="F62" s="287"/>
       <c r="G62" s="143" t="s">
         <v>545</v>
       </c>
@@ -21657,10 +21657,10 @@
       <c r="D63" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="E63" s="293" t="s">
+      <c r="E63" s="286" t="s">
         <v>313</v>
       </c>
-      <c r="F63" s="294"/>
+      <c r="F63" s="287"/>
       <c r="G63" s="143" t="s">
         <v>546</v>
       </c>
@@ -21719,10 +21719,10 @@
       <c r="D64" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="E64" s="293" t="s">
+      <c r="E64" s="286" t="s">
         <v>314</v>
       </c>
-      <c r="F64" s="294"/>
+      <c r="F64" s="287"/>
       <c r="G64" s="143" t="s">
         <v>547</v>
       </c>
@@ -21781,10 +21781,10 @@
       <c r="D65" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="E65" s="293" t="s">
+      <c r="E65" s="286" t="s">
         <v>315</v>
       </c>
-      <c r="F65" s="294"/>
+      <c r="F65" s="287"/>
       <c r="G65" s="143" t="s">
         <v>548</v>
       </c>
@@ -21843,10 +21843,10 @@
       <c r="D66" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="293" t="s">
+      <c r="E66" s="286" t="s">
         <v>316</v>
       </c>
-      <c r="F66" s="294"/>
+      <c r="F66" s="287"/>
       <c r="G66" s="143" t="s">
         <v>549</v>
       </c>
@@ -21893,10 +21893,10 @@
       <c r="D67" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="293" t="s">
+      <c r="E67" s="286" t="s">
         <v>317</v>
       </c>
-      <c r="F67" s="294"/>
+      <c r="F67" s="287"/>
       <c r="G67" s="143" t="s">
         <v>550</v>
       </c>
@@ -21943,10 +21943,10 @@
       <c r="D68" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="E68" s="293" t="s">
+      <c r="E68" s="286" t="s">
         <v>473</v>
       </c>
-      <c r="F68" s="294"/>
+      <c r="F68" s="287"/>
       <c r="G68" s="143" t="s">
         <v>691</v>
       </c>
@@ -21993,10 +21993,10 @@
       <c r="D69" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="293" t="s">
+      <c r="E69" s="286" t="s">
         <v>474</v>
       </c>
-      <c r="F69" s="294"/>
+      <c r="F69" s="287"/>
       <c r="G69" s="143" t="s">
         <v>692</v>
       </c>
@@ -22043,10 +22043,10 @@
       <c r="D70" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="E70" s="293" t="s">
+      <c r="E70" s="286" t="s">
         <v>318</v>
       </c>
-      <c r="F70" s="294"/>
+      <c r="F70" s="287"/>
       <c r="G70" s="143" t="s">
         <v>551</v>
       </c>
@@ -22093,10 +22093,10 @@
       <c r="D71" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="E71" s="293" t="s">
+      <c r="E71" s="286" t="s">
         <v>319</v>
       </c>
-      <c r="F71" s="294"/>
+      <c r="F71" s="287"/>
       <c r="G71" s="143" t="s">
         <v>552</v>
       </c>
@@ -22141,15 +22141,15 @@
       <c r="C72" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D72" s="278" t="s">
+      <c r="D72" s="249" t="s">
         <v>896</v>
       </c>
-      <c r="E72" s="279"/>
-      <c r="F72" s="279"/>
-      <c r="G72" s="279"/>
-      <c r="H72" s="279"/>
-      <c r="I72" s="279"/>
-      <c r="J72" s="279"/>
+      <c r="E72" s="250"/>
+      <c r="F72" s="250"/>
+      <c r="G72" s="250"/>
+      <c r="H72" s="250"/>
+      <c r="I72" s="250"/>
+      <c r="J72" s="250"/>
       <c r="K72" s="18"/>
       <c r="L72" s="16"/>
       <c r="M72" s="18"/>
@@ -22179,10 +22179,10 @@
       <c r="D73" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="E73" s="293" t="s">
+      <c r="E73" s="286" t="s">
         <v>320</v>
       </c>
-      <c r="F73" s="294"/>
+      <c r="F73" s="287"/>
       <c r="G73" s="143" t="s">
         <v>553</v>
       </c>
@@ -22239,10 +22239,10 @@
       <c r="D74" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="293" t="s">
+      <c r="E74" s="286" t="s">
         <v>321</v>
       </c>
-      <c r="F74" s="294"/>
+      <c r="F74" s="287"/>
       <c r="G74" s="143" t="s">
         <v>554</v>
       </c>
@@ -22287,10 +22287,10 @@
       <c r="D75" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="293" t="s">
+      <c r="E75" s="286" t="s">
         <v>322</v>
       </c>
-      <c r="F75" s="294"/>
+      <c r="F75" s="287"/>
       <c r="G75" s="143" t="s">
         <v>555</v>
       </c>
@@ -22335,10 +22335,10 @@
       <c r="D76" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="E76" s="293" t="s">
+      <c r="E76" s="286" t="s">
         <v>323</v>
       </c>
-      <c r="F76" s="294"/>
+      <c r="F76" s="287"/>
       <c r="G76" s="143" t="s">
         <v>556</v>
       </c>
@@ -22383,10 +22383,10 @@
       <c r="D77" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="E77" s="293" t="s">
+      <c r="E77" s="286" t="s">
         <v>324</v>
       </c>
-      <c r="F77" s="294"/>
+      <c r="F77" s="287"/>
       <c r="G77" s="143" t="s">
         <v>557</v>
       </c>
@@ -22443,10 +22443,10 @@
       <c r="D78" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="293" t="s">
+      <c r="E78" s="286" t="s">
         <v>325</v>
       </c>
-      <c r="F78" s="294"/>
+      <c r="F78" s="287"/>
       <c r="G78" s="143" t="s">
         <v>558</v>
       </c>
@@ -22503,10 +22503,10 @@
       <c r="D79" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="E79" s="293" t="s">
+      <c r="E79" s="286" t="s">
         <v>326</v>
       </c>
-      <c r="F79" s="294"/>
+      <c r="F79" s="287"/>
       <c r="G79" s="143" t="s">
         <v>559</v>
       </c>
@@ -22563,10 +22563,10 @@
       <c r="D80" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="293" t="s">
+      <c r="E80" s="286" t="s">
         <v>327</v>
       </c>
-      <c r="F80" s="294"/>
+      <c r="F80" s="287"/>
       <c r="G80" s="143" t="s">
         <v>560</v>
       </c>
@@ -22623,10 +22623,10 @@
       <c r="D81" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="E81" s="293" t="s">
+      <c r="E81" s="286" t="s">
         <v>328</v>
       </c>
-      <c r="F81" s="294"/>
+      <c r="F81" s="287"/>
       <c r="G81" s="143" t="s">
         <v>561</v>
       </c>
@@ -22671,10 +22671,10 @@
       <c r="D82" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="E82" s="293" t="s">
+      <c r="E82" s="286" t="s">
         <v>329</v>
       </c>
-      <c r="F82" s="294"/>
+      <c r="F82" s="287"/>
       <c r="G82" s="143" t="s">
         <v>562</v>
       </c>
@@ -22719,10 +22719,10 @@
       <c r="D83" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="E83" s="293" t="s">
+      <c r="E83" s="286" t="s">
         <v>330</v>
       </c>
-      <c r="F83" s="294"/>
+      <c r="F83" s="287"/>
       <c r="G83" s="143" t="s">
         <v>563</v>
       </c>
@@ -22779,10 +22779,10 @@
       <c r="D84" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="E84" s="293" t="s">
+      <c r="E84" s="286" t="s">
         <v>331</v>
       </c>
-      <c r="F84" s="294"/>
+      <c r="F84" s="287"/>
       <c r="G84" s="143" t="s">
         <v>564</v>
       </c>
@@ -22827,10 +22827,10 @@
       <c r="D85" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="E85" s="293" t="s">
+      <c r="E85" s="286" t="s">
         <v>332</v>
       </c>
-      <c r="F85" s="294"/>
+      <c r="F85" s="287"/>
       <c r="G85" s="143" t="s">
         <v>565</v>
       </c>
@@ -22887,10 +22887,10 @@
       <c r="D86" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="E86" s="293" t="s">
+      <c r="E86" s="286" t="s">
         <v>333</v>
       </c>
-      <c r="F86" s="294"/>
+      <c r="F86" s="287"/>
       <c r="G86" s="143" t="s">
         <v>566</v>
       </c>
@@ -22947,10 +22947,10 @@
       <c r="D87" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="E87" s="293" t="s">
+      <c r="E87" s="286" t="s">
         <v>334</v>
       </c>
-      <c r="F87" s="294"/>
+      <c r="F87" s="287"/>
       <c r="G87" s="143" t="s">
         <v>567</v>
       </c>
@@ -23004,13 +23004,13 @@
     <row r="88" spans="1:33" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="17"/>
       <c r="C88" s="37"/>
-      <c r="D88" s="307" t="s">
+      <c r="D88" s="246" t="s">
         <v>121</v>
       </c>
-      <c r="E88" s="293" t="s">
+      <c r="E88" s="286" t="s">
         <v>475</v>
       </c>
-      <c r="F88" s="294"/>
+      <c r="F88" s="287"/>
       <c r="G88" s="143" t="s">
         <v>693</v>
       </c>
@@ -23064,13 +23064,13 @@
     <row r="89" spans="1:33" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="17"/>
       <c r="C89" s="37"/>
-      <c r="D89" s="306" t="s">
+      <c r="D89" s="245" t="s">
         <v>122</v>
       </c>
-      <c r="E89" s="293" t="s">
+      <c r="E89" s="286" t="s">
         <v>476</v>
       </c>
-      <c r="F89" s="294"/>
+      <c r="F89" s="287"/>
       <c r="G89" s="143" t="s">
         <v>694</v>
       </c>
@@ -23116,10 +23116,10 @@
       <c r="D90" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="E90" s="293" t="s">
+      <c r="E90" s="286" t="s">
         <v>477</v>
       </c>
-      <c r="F90" s="294"/>
+      <c r="F90" s="287"/>
       <c r="G90" s="143" t="s">
         <v>695</v>
       </c>
@@ -23178,10 +23178,10 @@
       <c r="D91" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="E91" s="293" t="s">
+      <c r="E91" s="286" t="s">
         <v>478</v>
       </c>
-      <c r="F91" s="294"/>
+      <c r="F91" s="287"/>
       <c r="G91" s="143" t="s">
         <v>696</v>
       </c>
@@ -23228,10 +23228,10 @@
       <c r="D92" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="E92" s="293" t="s">
+      <c r="E92" s="286" t="s">
         <v>335</v>
       </c>
-      <c r="F92" s="294"/>
+      <c r="F92" s="287"/>
       <c r="G92" s="143" t="s">
         <v>568</v>
       </c>
@@ -23278,10 +23278,10 @@
       <c r="D93" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="E93" s="293" t="s">
+      <c r="E93" s="286" t="s">
         <v>336</v>
       </c>
-      <c r="F93" s="294"/>
+      <c r="F93" s="287"/>
       <c r="G93" s="143" t="s">
         <v>569</v>
       </c>
@@ -23328,10 +23328,10 @@
       <c r="D94" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="E94" s="293" t="s">
+      <c r="E94" s="286" t="s">
         <v>337</v>
       </c>
-      <c r="F94" s="294"/>
+      <c r="F94" s="287"/>
       <c r="G94" s="143" t="s">
         <v>570</v>
       </c>
@@ -23378,10 +23378,10 @@
       <c r="D95" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="E95" s="293" t="s">
+      <c r="E95" s="286" t="s">
         <v>338</v>
       </c>
-      <c r="F95" s="294"/>
+      <c r="F95" s="287"/>
       <c r="G95" s="143" t="s">
         <v>571</v>
       </c>
@@ -23428,10 +23428,10 @@
       <c r="D96" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="E96" s="293" t="s">
+      <c r="E96" s="286" t="s">
         <v>339</v>
       </c>
-      <c r="F96" s="294"/>
+      <c r="F96" s="287"/>
       <c r="G96" s="143" t="s">
         <v>572</v>
       </c>
@@ -23478,10 +23478,10 @@
       <c r="D97" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="E97" s="293" t="s">
+      <c r="E97" s="286" t="s">
         <v>340</v>
       </c>
-      <c r="F97" s="294"/>
+      <c r="F97" s="287"/>
       <c r="G97" s="143" t="s">
         <v>573</v>
       </c>
@@ -23528,10 +23528,10 @@
       <c r="D98" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="E98" s="293" t="s">
+      <c r="E98" s="286" t="s">
         <v>341</v>
       </c>
-      <c r="F98" s="294"/>
+      <c r="F98" s="287"/>
       <c r="G98" s="143" t="s">
         <v>574</v>
       </c>
@@ -23578,10 +23578,10 @@
       <c r="D99" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="E99" s="293" t="s">
+      <c r="E99" s="286" t="s">
         <v>342</v>
       </c>
-      <c r="F99" s="294"/>
+      <c r="F99" s="287"/>
       <c r="G99" s="143" t="s">
         <v>575</v>
       </c>
@@ -23628,10 +23628,10 @@
       <c r="D100" s="108" t="s">
         <v>343</v>
       </c>
-      <c r="E100" s="293" t="s">
+      <c r="E100" s="286" t="s">
         <v>344</v>
       </c>
-      <c r="F100" s="294"/>
+      <c r="F100" s="287"/>
       <c r="G100" s="143" t="s">
         <v>576</v>
       </c>
@@ -23690,10 +23690,10 @@
       <c r="D101" s="107" t="s">
         <v>345</v>
       </c>
-      <c r="E101" s="293" t="s">
+      <c r="E101" s="286" t="s">
         <v>479</v>
       </c>
-      <c r="F101" s="294"/>
+      <c r="F101" s="287"/>
       <c r="G101" s="143" t="s">
         <v>697</v>
       </c>
@@ -23740,10 +23740,10 @@
       <c r="D102" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="E102" s="293" t="s">
+      <c r="E102" s="286" t="s">
         <v>347</v>
       </c>
-      <c r="F102" s="294"/>
+      <c r="F102" s="287"/>
       <c r="G102" s="143" t="s">
         <v>577</v>
       </c>
@@ -23790,10 +23790,10 @@
       <c r="D103" s="107" t="s">
         <v>348</v>
       </c>
-      <c r="E103" s="293" t="s">
+      <c r="E103" s="286" t="s">
         <v>349</v>
       </c>
-      <c r="F103" s="294"/>
+      <c r="F103" s="287"/>
       <c r="G103" s="143" t="s">
         <v>578</v>
       </c>
@@ -23840,10 +23840,10 @@
       <c r="D104" s="108" t="s">
         <v>350</v>
       </c>
-      <c r="E104" s="293" t="s">
+      <c r="E104" s="286" t="s">
         <v>351</v>
       </c>
-      <c r="F104" s="294"/>
+      <c r="F104" s="287"/>
       <c r="G104" s="143" t="s">
         <v>579</v>
       </c>
@@ -23890,10 +23890,10 @@
       <c r="D105" s="107" t="s">
         <v>352</v>
       </c>
-      <c r="E105" s="293" t="s">
+      <c r="E105" s="286" t="s">
         <v>353</v>
       </c>
-      <c r="F105" s="294"/>
+      <c r="F105" s="287"/>
       <c r="G105" s="143" t="s">
         <v>580</v>
       </c>
@@ -23952,10 +23952,10 @@
       <c r="D106" s="108" t="s">
         <v>354</v>
       </c>
-      <c r="E106" s="293" t="s">
+      <c r="E106" s="286" t="s">
         <v>355</v>
       </c>
-      <c r="F106" s="294"/>
+      <c r="F106" s="287"/>
       <c r="G106" s="143" t="s">
         <v>581</v>
       </c>
@@ -24002,10 +24002,10 @@
       <c r="D107" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="E107" s="293" t="s">
+      <c r="E107" s="286" t="s">
         <v>357</v>
       </c>
-      <c r="F107" s="294"/>
+      <c r="F107" s="287"/>
       <c r="G107" s="143" t="s">
         <v>582</v>
       </c>
@@ -24052,10 +24052,10 @@
       <c r="D108" s="108" t="s">
         <v>358</v>
       </c>
-      <c r="E108" s="293" t="s">
+      <c r="E108" s="286" t="s">
         <v>480</v>
       </c>
-      <c r="F108" s="294"/>
+      <c r="F108" s="287"/>
       <c r="G108" s="143" t="s">
         <v>698</v>
       </c>
@@ -24102,10 +24102,10 @@
       <c r="D109" s="107" t="s">
         <v>359</v>
       </c>
-      <c r="E109" s="293" t="s">
+      <c r="E109" s="286" t="s">
         <v>481</v>
       </c>
-      <c r="F109" s="294"/>
+      <c r="F109" s="287"/>
       <c r="G109" s="143" t="s">
         <v>699</v>
       </c>
@@ -24152,10 +24152,10 @@
       <c r="D110" s="108" t="s">
         <v>360</v>
       </c>
-      <c r="E110" s="293" t="s">
+      <c r="E110" s="286" t="s">
         <v>482</v>
       </c>
-      <c r="F110" s="294"/>
+      <c r="F110" s="287"/>
       <c r="G110" s="143" t="s">
         <v>700</v>
       </c>
@@ -24202,10 +24202,10 @@
       <c r="D111" s="107" t="s">
         <v>361</v>
       </c>
-      <c r="E111" s="293" t="s">
+      <c r="E111" s="286" t="s">
         <v>483</v>
       </c>
-      <c r="F111" s="294"/>
+      <c r="F111" s="287"/>
       <c r="G111" s="143" t="s">
         <v>701</v>
       </c>
@@ -24252,10 +24252,10 @@
       <c r="D112" s="108" t="s">
         <v>362</v>
       </c>
-      <c r="E112" s="293" t="s">
+      <c r="E112" s="286" t="s">
         <v>484</v>
       </c>
-      <c r="F112" s="294"/>
+      <c r="F112" s="287"/>
       <c r="G112" s="143" t="s">
         <v>702</v>
       </c>
@@ -24314,10 +24314,10 @@
       <c r="D113" s="107" t="s">
         <v>363</v>
       </c>
-      <c r="E113" s="293" t="s">
+      <c r="E113" s="286" t="s">
         <v>485</v>
       </c>
-      <c r="F113" s="294"/>
+      <c r="F113" s="287"/>
       <c r="G113" s="143" t="s">
         <v>703</v>
       </c>
@@ -24376,10 +24376,10 @@
       <c r="D114" s="108" t="s">
         <v>364</v>
       </c>
-      <c r="E114" s="293" t="s">
+      <c r="E114" s="286" t="s">
         <v>365</v>
       </c>
-      <c r="F114" s="294"/>
+      <c r="F114" s="287"/>
       <c r="G114" s="143" t="s">
         <v>583</v>
       </c>
@@ -24438,10 +24438,10 @@
       <c r="D115" s="107" t="s">
         <v>366</v>
       </c>
-      <c r="E115" s="293" t="s">
+      <c r="E115" s="286" t="s">
         <v>367</v>
       </c>
-      <c r="F115" s="294"/>
+      <c r="F115" s="287"/>
       <c r="G115" s="143" t="s">
         <v>584</v>
       </c>
@@ -24500,10 +24500,10 @@
       <c r="D116" s="108" t="s">
         <v>368</v>
       </c>
-      <c r="E116" s="293" t="s">
+      <c r="E116" s="286" t="s">
         <v>369</v>
       </c>
-      <c r="F116" s="294"/>
+      <c r="F116" s="287"/>
       <c r="G116" s="143" t="s">
         <v>585</v>
       </c>
@@ -24562,10 +24562,10 @@
       <c r="D117" s="107" t="s">
         <v>370</v>
       </c>
-      <c r="E117" s="293" t="s">
+      <c r="E117" s="286" t="s">
         <v>371</v>
       </c>
-      <c r="F117" s="294"/>
+      <c r="F117" s="287"/>
       <c r="G117" s="143" t="s">
         <v>586</v>
       </c>
@@ -24624,10 +24624,10 @@
       <c r="D118" s="108" t="s">
         <v>372</v>
       </c>
-      <c r="E118" s="293" t="s">
+      <c r="E118" s="286" t="s">
         <v>373</v>
       </c>
-      <c r="F118" s="294"/>
+      <c r="F118" s="287"/>
       <c r="G118" s="143" t="s">
         <v>587</v>
       </c>
@@ -24674,10 +24674,10 @@
       <c r="D119" s="107" t="s">
         <v>374</v>
       </c>
-      <c r="E119" s="293" t="s">
+      <c r="E119" s="286" t="s">
         <v>486</v>
       </c>
-      <c r="F119" s="294"/>
+      <c r="F119" s="287"/>
       <c r="G119" s="143" t="s">
         <v>704</v>
       </c>
@@ -24724,10 +24724,10 @@
       <c r="D120" s="108" t="s">
         <v>375</v>
       </c>
-      <c r="E120" s="293" t="s">
+      <c r="E120" s="286" t="s">
         <v>376</v>
       </c>
-      <c r="F120" s="294"/>
+      <c r="F120" s="287"/>
       <c r="G120" s="143" t="s">
         <v>588</v>
       </c>
@@ -24774,10 +24774,10 @@
       <c r="D121" s="107" t="s">
         <v>377</v>
       </c>
-      <c r="E121" s="293" t="s">
+      <c r="E121" s="286" t="s">
         <v>378</v>
       </c>
-      <c r="F121" s="294"/>
+      <c r="F121" s="287"/>
       <c r="G121" s="143" t="s">
         <v>589</v>
       </c>
@@ -24824,10 +24824,10 @@
       <c r="D122" s="108" t="s">
         <v>379</v>
       </c>
-      <c r="E122" s="293" t="s">
+      <c r="E122" s="286" t="s">
         <v>380</v>
       </c>
-      <c r="F122" s="294"/>
+      <c r="F122" s="287"/>
       <c r="G122" s="143" t="s">
         <v>590</v>
       </c>
@@ -24874,10 +24874,10 @@
       <c r="D123" s="107" t="s">
         <v>381</v>
       </c>
-      <c r="E123" s="293" t="s">
+      <c r="E123" s="286" t="s">
         <v>382</v>
       </c>
-      <c r="F123" s="294"/>
+      <c r="F123" s="287"/>
       <c r="G123" s="143" t="s">
         <v>591</v>
       </c>
@@ -24924,10 +24924,10 @@
       <c r="D124" s="108" t="s">
         <v>383</v>
       </c>
-      <c r="E124" s="293" t="s">
+      <c r="E124" s="286" t="s">
         <v>384</v>
       </c>
-      <c r="F124" s="294"/>
+      <c r="F124" s="287"/>
       <c r="G124" s="143" t="s">
         <v>592</v>
       </c>
@@ -24974,10 +24974,10 @@
       <c r="D125" s="107" t="s">
         <v>385</v>
       </c>
-      <c r="E125" s="293" t="s">
+      <c r="E125" s="286" t="s">
         <v>386</v>
       </c>
-      <c r="F125" s="294"/>
+      <c r="F125" s="287"/>
       <c r="G125" s="143" t="s">
         <v>593</v>
       </c>
@@ -25022,15 +25022,15 @@
       <c r="C126" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D126" s="278" t="s">
+      <c r="D126" s="249" t="s">
         <v>133</v>
       </c>
-      <c r="E126" s="279"/>
-      <c r="F126" s="279"/>
-      <c r="G126" s="279"/>
-      <c r="H126" s="279"/>
-      <c r="I126" s="279"/>
-      <c r="J126" s="279"/>
+      <c r="E126" s="250"/>
+      <c r="F126" s="250"/>
+      <c r="G126" s="250"/>
+      <c r="H126" s="250"/>
+      <c r="I126" s="250"/>
+      <c r="J126" s="250"/>
       <c r="K126" s="18"/>
       <c r="L126" s="16"/>
       <c r="M126" s="18"/>
@@ -25061,10 +25061,10 @@
       <c r="D127" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="E127" s="293" t="s">
+      <c r="E127" s="286" t="s">
         <v>387</v>
       </c>
-      <c r="F127" s="294"/>
+      <c r="F127" s="287"/>
       <c r="G127" s="143" t="s">
         <v>594</v>
       </c>
@@ -25111,10 +25111,10 @@
       <c r="D128" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="E128" s="293" t="s">
+      <c r="E128" s="286" t="s">
         <v>388</v>
       </c>
-      <c r="F128" s="294"/>
+      <c r="F128" s="287"/>
       <c r="G128" s="143" t="s">
         <v>595</v>
       </c>
@@ -25161,10 +25161,10 @@
       <c r="D129" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E129" s="293" t="s">
+      <c r="E129" s="286" t="s">
         <v>487</v>
       </c>
-      <c r="F129" s="294"/>
+      <c r="F129" s="287"/>
       <c r="G129" s="143" t="s">
         <v>705</v>
       </c>
@@ -25211,10 +25211,10 @@
       <c r="D130" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="293" t="s">
+      <c r="E130" s="286" t="s">
         <v>488</v>
       </c>
-      <c r="F130" s="294"/>
+      <c r="F130" s="287"/>
       <c r="G130" s="143" t="s">
         <v>706</v>
       </c>
@@ -25261,10 +25261,10 @@
       <c r="D131" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="E131" s="293" t="s">
+      <c r="E131" s="286" t="s">
         <v>489</v>
       </c>
-      <c r="F131" s="294"/>
+      <c r="F131" s="287"/>
       <c r="G131" s="143" t="s">
         <v>707</v>
       </c>
@@ -25323,10 +25323,10 @@
       <c r="D132" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="E132" s="293" t="s">
+      <c r="E132" s="286" t="s">
         <v>389</v>
       </c>
-      <c r="F132" s="294"/>
+      <c r="F132" s="287"/>
       <c r="G132" s="143" t="s">
         <v>596</v>
       </c>
@@ -25385,10 +25385,10 @@
       <c r="D133" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="E133" s="293" t="s">
+      <c r="E133" s="286" t="s">
         <v>390</v>
       </c>
-      <c r="F133" s="294"/>
+      <c r="F133" s="287"/>
       <c r="G133" s="143" t="s">
         <v>597</v>
       </c>
@@ -25447,10 +25447,10 @@
       <c r="D134" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="E134" s="293" t="s">
+      <c r="E134" s="286" t="s">
         <v>391</v>
       </c>
-      <c r="F134" s="294"/>
+      <c r="F134" s="287"/>
       <c r="G134" s="143" t="s">
         <v>598</v>
       </c>
@@ -25509,10 +25509,10 @@
       <c r="D135" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="E135" s="293" t="s">
+      <c r="E135" s="286" t="s">
         <v>392</v>
       </c>
-      <c r="F135" s="294"/>
+      <c r="F135" s="287"/>
       <c r="G135" s="143" t="s">
         <v>599</v>
       </c>
@@ -25571,10 +25571,10 @@
       <c r="D136" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="E136" s="293" t="s">
+      <c r="E136" s="286" t="s">
         <v>393</v>
       </c>
-      <c r="F136" s="294"/>
+      <c r="F136" s="287"/>
       <c r="G136" s="143" t="s">
         <v>600</v>
       </c>
@@ -25619,15 +25619,15 @@
       <c r="C137" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D137" s="278" t="s">
+      <c r="D137" s="249" t="s">
         <v>394</v>
       </c>
-      <c r="E137" s="279"/>
-      <c r="F137" s="279"/>
-      <c r="G137" s="279"/>
-      <c r="H137" s="279"/>
-      <c r="I137" s="279"/>
-      <c r="J137" s="279"/>
+      <c r="E137" s="250"/>
+      <c r="F137" s="250"/>
+      <c r="G137" s="250"/>
+      <c r="H137" s="250"/>
+      <c r="I137" s="250"/>
+      <c r="J137" s="250"/>
       <c r="K137" s="18"/>
       <c r="L137" s="16"/>
       <c r="M137" s="18"/>
@@ -25658,10 +25658,10 @@
       <c r="D138" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="E138" s="293" t="s">
+      <c r="E138" s="286" t="s">
         <v>395</v>
       </c>
-      <c r="F138" s="294"/>
+      <c r="F138" s="287"/>
       <c r="G138" s="143" t="s">
         <v>601</v>
       </c>
@@ -25707,10 +25707,10 @@
       <c r="D139" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="E139" s="293" t="s">
+      <c r="E139" s="286" t="s">
         <v>490</v>
       </c>
-      <c r="F139" s="294"/>
+      <c r="F139" s="287"/>
       <c r="G139" s="143" t="s">
         <v>708</v>
       </c>
@@ -25756,10 +25756,10 @@
       <c r="D140" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E140" s="293" t="s">
+      <c r="E140" s="286" t="s">
         <v>396</v>
       </c>
-      <c r="F140" s="294"/>
+      <c r="F140" s="287"/>
       <c r="G140" s="143" t="s">
         <v>602</v>
       </c>
@@ -25805,10 +25805,10 @@
       <c r="D141" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="E141" s="293" t="s">
+      <c r="E141" s="286" t="s">
         <v>397</v>
       </c>
-      <c r="F141" s="294"/>
+      <c r="F141" s="287"/>
       <c r="G141" s="143" t="s">
         <v>603</v>
       </c>
@@ -25854,10 +25854,10 @@
       <c r="D142" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="E142" s="293" t="s">
+      <c r="E142" s="286" t="s">
         <v>398</v>
       </c>
-      <c r="F142" s="294"/>
+      <c r="F142" s="287"/>
       <c r="G142" s="143" t="s">
         <v>604</v>
       </c>
@@ -25904,10 +25904,10 @@
       <c r="D143" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="E143" s="293" t="s">
+      <c r="E143" s="286" t="s">
         <v>399</v>
       </c>
-      <c r="F143" s="294"/>
+      <c r="F143" s="287"/>
       <c r="G143" s="143" t="s">
         <v>605</v>
       </c>
@@ -25953,10 +25953,10 @@
       <c r="D144" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="E144" s="293" t="s">
+      <c r="E144" s="286" t="s">
         <v>400</v>
       </c>
-      <c r="F144" s="294"/>
+      <c r="F144" s="287"/>
       <c r="G144" s="143" t="s">
         <v>606</v>
       </c>
@@ -26002,10 +26002,10 @@
       <c r="D145" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E145" s="293" t="s">
+      <c r="E145" s="286" t="s">
         <v>401</v>
       </c>
-      <c r="F145" s="294"/>
+      <c r="F145" s="287"/>
       <c r="G145" s="143" t="s">
         <v>607</v>
       </c>
@@ -26051,10 +26051,10 @@
       <c r="D146" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="E146" s="293" t="s">
+      <c r="E146" s="286" t="s">
         <v>402</v>
       </c>
-      <c r="F146" s="294"/>
+      <c r="F146" s="287"/>
       <c r="G146" s="143" t="s">
         <v>608</v>
       </c>
@@ -26100,10 +26100,10 @@
       <c r="D147" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="E147" s="293" t="s">
+      <c r="E147" s="286" t="s">
         <v>491</v>
       </c>
-      <c r="F147" s="294"/>
+      <c r="F147" s="287"/>
       <c r="G147" s="143" t="s">
         <v>609</v>
       </c>
@@ -26149,10 +26149,10 @@
       <c r="D148" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="E148" s="293" t="s">
+      <c r="E148" s="286" t="s">
         <v>403</v>
       </c>
-      <c r="F148" s="294"/>
+      <c r="F148" s="287"/>
       <c r="G148" s="143" t="s">
         <v>610</v>
       </c>
@@ -26195,16 +26195,16 @@
       <c r="B149" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C149" s="278" t="s">
+      <c r="C149" s="249" t="s">
         <v>611</v>
       </c>
-      <c r="D149" s="279"/>
-      <c r="E149" s="279"/>
-      <c r="F149" s="279"/>
-      <c r="G149" s="279"/>
-      <c r="H149" s="279"/>
-      <c r="I149" s="279"/>
-      <c r="J149" s="279"/>
+      <c r="D149" s="250"/>
+      <c r="E149" s="250"/>
+      <c r="F149" s="250"/>
+      <c r="G149" s="250"/>
+      <c r="H149" s="250"/>
+      <c r="I149" s="250"/>
+      <c r="J149" s="250"/>
       <c r="K149" s="18"/>
       <c r="L149" s="16"/>
       <c r="M149" s="18"/>
@@ -26233,15 +26233,15 @@
       <c r="C150" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D150" s="278" t="s">
+      <c r="D150" s="249" t="s">
         <v>137</v>
       </c>
-      <c r="E150" s="279"/>
-      <c r="F150" s="279"/>
-      <c r="G150" s="279"/>
-      <c r="H150" s="279"/>
-      <c r="I150" s="279"/>
-      <c r="J150" s="279"/>
+      <c r="E150" s="250"/>
+      <c r="F150" s="250"/>
+      <c r="G150" s="250"/>
+      <c r="H150" s="250"/>
+      <c r="I150" s="250"/>
+      <c r="J150" s="250"/>
       <c r="K150" s="18"/>
       <c r="L150" s="16"/>
       <c r="M150" s="18"/>
@@ -26272,10 +26272,10 @@
       <c r="D151" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="E151" s="293" t="s">
+      <c r="E151" s="286" t="s">
         <v>404</v>
       </c>
-      <c r="F151" s="294"/>
+      <c r="F151" s="287"/>
       <c r="G151" s="143" t="s">
         <v>612</v>
       </c>
@@ -26321,10 +26321,10 @@
       <c r="D152" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="E152" s="293" t="s">
+      <c r="E152" s="286" t="s">
         <v>405</v>
       </c>
-      <c r="F152" s="294"/>
+      <c r="F152" s="287"/>
       <c r="G152" s="143" t="s">
         <v>613</v>
       </c>
@@ -26370,10 +26370,10 @@
       <c r="D153" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="E153" s="293" t="s">
+      <c r="E153" s="286" t="s">
         <v>492</v>
       </c>
-      <c r="F153" s="294"/>
+      <c r="F153" s="287"/>
       <c r="G153" s="143" t="s">
         <v>614</v>
       </c>
@@ -26418,10 +26418,10 @@
       <c r="D154" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="E154" s="293" t="s">
+      <c r="E154" s="286" t="s">
         <v>493</v>
       </c>
-      <c r="F154" s="294"/>
+      <c r="F154" s="287"/>
       <c r="G154" s="143" t="s">
         <v>615</v>
       </c>
@@ -26479,10 +26479,10 @@
       <c r="D155" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="E155" s="293" t="s">
+      <c r="E155" s="286" t="s">
         <v>406</v>
       </c>
-      <c r="F155" s="294"/>
+      <c r="F155" s="287"/>
       <c r="G155" s="143" t="s">
         <v>616</v>
       </c>
@@ -26528,10 +26528,10 @@
       <c r="D156" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="E156" s="293" t="s">
+      <c r="E156" s="286" t="s">
         <v>407</v>
       </c>
-      <c r="F156" s="294"/>
+      <c r="F156" s="287"/>
       <c r="G156" s="143" t="s">
         <v>617</v>
       </c>
@@ -26577,10 +26577,10 @@
       <c r="D157" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="E157" s="293" t="s">
+      <c r="E157" s="286" t="s">
         <v>408</v>
       </c>
-      <c r="F157" s="294"/>
+      <c r="F157" s="287"/>
       <c r="G157" s="143" t="s">
         <v>618</v>
       </c>
@@ -26638,10 +26638,10 @@
       <c r="D158" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E158" s="293" t="s">
+      <c r="E158" s="286" t="s">
         <v>409</v>
       </c>
-      <c r="F158" s="294"/>
+      <c r="F158" s="287"/>
       <c r="G158" s="143" t="s">
         <v>619</v>
       </c>
@@ -26687,10 +26687,10 @@
       <c r="D159" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="E159" s="293" t="s">
+      <c r="E159" s="286" t="s">
         <v>410</v>
       </c>
-      <c r="F159" s="294"/>
+      <c r="F159" s="287"/>
       <c r="G159" s="143" t="s">
         <v>620</v>
       </c>
@@ -26748,10 +26748,10 @@
       <c r="D160" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="E160" s="293" t="s">
+      <c r="E160" s="286" t="s">
         <v>411</v>
       </c>
-      <c r="F160" s="294"/>
+      <c r="F160" s="287"/>
       <c r="G160" s="143" t="s">
         <v>621</v>
       </c>
@@ -26809,10 +26809,10 @@
       <c r="D161" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E161" s="293" t="s">
+      <c r="E161" s="286" t="s">
         <v>412</v>
       </c>
-      <c r="F161" s="294"/>
+      <c r="F161" s="287"/>
       <c r="G161" s="143" t="s">
         <v>622</v>
       </c>
@@ -26858,10 +26858,10 @@
       <c r="D162" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="E162" s="293" t="s">
+      <c r="E162" s="286" t="s">
         <v>413</v>
       </c>
-      <c r="F162" s="294"/>
+      <c r="F162" s="287"/>
       <c r="G162" s="143" t="s">
         <v>623</v>
       </c>
@@ -26919,10 +26919,10 @@
       <c r="D163" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="E163" s="293" t="s">
+      <c r="E163" s="286" t="s">
         <v>494</v>
       </c>
-      <c r="F163" s="294"/>
+      <c r="F163" s="287"/>
       <c r="G163" s="143" t="s">
         <v>624</v>
       </c>
@@ -26968,10 +26968,10 @@
       <c r="D164" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="E164" s="293" t="s">
+      <c r="E164" s="286" t="s">
         <v>414</v>
       </c>
-      <c r="F164" s="294"/>
+      <c r="F164" s="287"/>
       <c r="G164" s="143" t="s">
         <v>625</v>
       </c>
@@ -27017,10 +27017,10 @@
       <c r="D165" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="E165" s="293" t="s">
+      <c r="E165" s="286" t="s">
         <v>415</v>
       </c>
-      <c r="F165" s="294"/>
+      <c r="F165" s="287"/>
       <c r="G165" s="143" t="s">
         <v>626</v>
       </c>
@@ -27066,10 +27066,10 @@
       <c r="D166" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="E166" s="293" t="s">
+      <c r="E166" s="286" t="s">
         <v>416</v>
       </c>
-      <c r="F166" s="294"/>
+      <c r="F166" s="287"/>
       <c r="G166" s="143" t="s">
         <v>627</v>
       </c>
@@ -27115,10 +27115,10 @@
       <c r="D167" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="E167" s="293" t="s">
+      <c r="E167" s="286" t="s">
         <v>417</v>
       </c>
-      <c r="F167" s="294"/>
+      <c r="F167" s="287"/>
       <c r="G167" s="143" t="s">
         <v>628</v>
       </c>
@@ -27164,10 +27164,10 @@
       <c r="D168" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="E168" s="293" t="s">
+      <c r="E168" s="286" t="s">
         <v>418</v>
       </c>
-      <c r="F168" s="294"/>
+      <c r="F168" s="287"/>
       <c r="G168" s="143" t="s">
         <v>629</v>
       </c>
@@ -27213,10 +27213,10 @@
       <c r="D169" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="E169" s="293" t="s">
+      <c r="E169" s="286" t="s">
         <v>419</v>
       </c>
-      <c r="F169" s="294"/>
+      <c r="F169" s="287"/>
       <c r="G169" s="143" t="s">
         <v>630</v>
       </c>
@@ -27262,10 +27262,10 @@
       <c r="D170" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="E170" s="293" t="s">
+      <c r="E170" s="286" t="s">
         <v>420</v>
       </c>
-      <c r="F170" s="294"/>
+      <c r="F170" s="287"/>
       <c r="G170" s="143" t="s">
         <v>631</v>
       </c>
@@ -27309,15 +27309,15 @@
       <c r="C171" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D171" s="296" t="s">
+      <c r="D171" s="297" t="s">
         <v>139</v>
       </c>
-      <c r="E171" s="296"/>
-      <c r="F171" s="296"/>
-      <c r="G171" s="278"/>
-      <c r="H171" s="278"/>
-      <c r="I171" s="278"/>
-      <c r="J171" s="278"/>
+      <c r="E171" s="297"/>
+      <c r="F171" s="297"/>
+      <c r="G171" s="249"/>
+      <c r="H171" s="249"/>
+      <c r="I171" s="249"/>
+      <c r="J171" s="249"/>
       <c r="K171" s="18"/>
       <c r="L171" s="16"/>
       <c r="M171" s="18"/>
@@ -27335,10 +27335,10 @@
       <c r="D172" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="E172" s="293" t="s">
+      <c r="E172" s="286" t="s">
         <v>421</v>
       </c>
-      <c r="F172" s="294"/>
+      <c r="F172" s="287"/>
       <c r="G172" s="143" t="s">
         <v>632</v>
       </c>
@@ -27384,10 +27384,10 @@
       <c r="D173" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E173" s="293" t="s">
+      <c r="E173" s="286" t="s">
         <v>422</v>
       </c>
-      <c r="F173" s="294"/>
+      <c r="F173" s="287"/>
       <c r="G173" s="143" t="s">
         <v>633</v>
       </c>
@@ -27433,10 +27433,10 @@
       <c r="D174" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E174" s="293" t="s">
+      <c r="E174" s="286" t="s">
         <v>423</v>
       </c>
-      <c r="F174" s="294"/>
+      <c r="F174" s="287"/>
       <c r="G174" s="143" t="s">
         <v>634</v>
       </c>
@@ -27483,10 +27483,10 @@
       <c r="D175" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="E175" s="293" t="s">
+      <c r="E175" s="286" t="s">
         <v>424</v>
       </c>
-      <c r="F175" s="294"/>
+      <c r="F175" s="287"/>
       <c r="G175" s="143" t="s">
         <v>635</v>
       </c>
@@ -27531,10 +27531,10 @@
       <c r="D176" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="E176" s="293" t="s">
+      <c r="E176" s="286" t="s">
         <v>425</v>
       </c>
-      <c r="F176" s="294"/>
+      <c r="F176" s="287"/>
       <c r="G176" s="143" t="s">
         <v>636</v>
       </c>
@@ -27592,10 +27592,10 @@
       <c r="D177" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="E177" s="293" t="s">
+      <c r="E177" s="286" t="s">
         <v>426</v>
       </c>
-      <c r="F177" s="294"/>
+      <c r="F177" s="287"/>
       <c r="G177" s="143" t="s">
         <v>637</v>
       </c>
@@ -27641,10 +27641,10 @@
       <c r="D178" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="E178" s="293" t="s">
+      <c r="E178" s="286" t="s">
         <v>427</v>
       </c>
-      <c r="F178" s="294"/>
+      <c r="F178" s="287"/>
       <c r="G178" s="143" t="s">
         <v>638</v>
       </c>
@@ -27690,10 +27690,10 @@
       <c r="D179" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="E179" s="293" t="s">
+      <c r="E179" s="286" t="s">
         <v>428</v>
       </c>
-      <c r="F179" s="294"/>
+      <c r="F179" s="287"/>
       <c r="G179" s="143" t="s">
         <v>639</v>
       </c>
@@ -27738,10 +27738,10 @@
       <c r="D180" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="E180" s="293" t="s">
+      <c r="E180" s="286" t="s">
         <v>429</v>
       </c>
-      <c r="F180" s="294"/>
+      <c r="F180" s="287"/>
       <c r="G180" s="143" t="s">
         <v>640</v>
       </c>
@@ -27787,10 +27787,10 @@
       <c r="D181" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="E181" s="293" t="s">
+      <c r="E181" s="286" t="s">
         <v>430</v>
       </c>
-      <c r="F181" s="294"/>
+      <c r="F181" s="287"/>
       <c r="G181" s="143" t="s">
         <v>641</v>
       </c>
@@ -27848,10 +27848,10 @@
       <c r="D182" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="E182" s="293" t="s">
+      <c r="E182" s="286" t="s">
         <v>495</v>
       </c>
-      <c r="F182" s="294"/>
+      <c r="F182" s="287"/>
       <c r="G182" s="143" t="s">
         <v>642</v>
       </c>
@@ -27909,10 +27909,10 @@
       <c r="D183" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="E183" s="293" t="s">
+      <c r="E183" s="286" t="s">
         <v>431</v>
       </c>
-      <c r="F183" s="294"/>
+      <c r="F183" s="287"/>
       <c r="G183" s="143" t="s">
         <v>643</v>
       </c>
@@ -27970,10 +27970,10 @@
       <c r="D184" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="E184" s="293" t="s">
+      <c r="E184" s="286" t="s">
         <v>432</v>
       </c>
-      <c r="F184" s="294"/>
+      <c r="F184" s="287"/>
       <c r="G184" s="143" t="s">
         <v>644</v>
       </c>
@@ -28032,10 +28032,10 @@
       <c r="D185" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="E185" s="293" t="s">
+      <c r="E185" s="286" t="s">
         <v>496</v>
       </c>
-      <c r="F185" s="294"/>
+      <c r="F185" s="287"/>
       <c r="G185" s="143" t="s">
         <v>709</v>
       </c>
@@ -28094,10 +28094,10 @@
       <c r="D186" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="E186" s="293" t="s">
+      <c r="E186" s="286" t="s">
         <v>433</v>
       </c>
-      <c r="F186" s="294"/>
+      <c r="F186" s="287"/>
       <c r="G186" s="143" t="s">
         <v>645</v>
       </c>
@@ -28152,16 +28152,16 @@
       <c r="B187" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C187" s="278" t="s">
+      <c r="C187" s="249" t="s">
         <v>143</v>
       </c>
-      <c r="D187" s="279"/>
-      <c r="E187" s="279"/>
-      <c r="F187" s="279"/>
-      <c r="G187" s="279"/>
-      <c r="H187" s="279"/>
-      <c r="I187" s="279"/>
-      <c r="J187" s="279"/>
+      <c r="D187" s="250"/>
+      <c r="E187" s="250"/>
+      <c r="F187" s="250"/>
+      <c r="G187" s="250"/>
+      <c r="H187" s="250"/>
+      <c r="I187" s="250"/>
+      <c r="J187" s="250"/>
       <c r="K187" s="18"/>
       <c r="L187" s="16"/>
       <c r="M187" s="18"/>
@@ -28178,15 +28178,15 @@
       <c r="C188" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D188" s="296" t="s">
+      <c r="D188" s="297" t="s">
         <v>144</v>
       </c>
-      <c r="E188" s="296"/>
-      <c r="F188" s="296"/>
-      <c r="G188" s="278"/>
-      <c r="H188" s="278"/>
-      <c r="I188" s="278"/>
-      <c r="J188" s="278"/>
+      <c r="E188" s="297"/>
+      <c r="F188" s="297"/>
+      <c r="G188" s="249"/>
+      <c r="H188" s="249"/>
+      <c r="I188" s="249"/>
+      <c r="J188" s="249"/>
       <c r="K188" s="18"/>
       <c r="L188" s="16"/>
       <c r="M188" s="18"/>
@@ -28205,10 +28205,10 @@
       <c r="D189" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="E189" s="293" t="s">
+      <c r="E189" s="286" t="s">
         <v>434</v>
       </c>
-      <c r="F189" s="294"/>
+      <c r="F189" s="287"/>
       <c r="G189" s="143" t="s">
         <v>646</v>
       </c>
@@ -28266,10 +28266,10 @@
       <c r="D190" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="E190" s="293" t="s">
+      <c r="E190" s="286" t="s">
         <v>435</v>
       </c>
-      <c r="F190" s="294"/>
+      <c r="F190" s="287"/>
       <c r="G190" s="143" t="s">
         <v>647</v>
       </c>
@@ -28327,10 +28327,10 @@
       <c r="D191" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="E191" s="293" t="s">
+      <c r="E191" s="286" t="s">
         <v>436</v>
       </c>
-      <c r="F191" s="294"/>
+      <c r="F191" s="287"/>
       <c r="G191" s="143" t="s">
         <v>648</v>
       </c>
@@ -28388,10 +28388,10 @@
       <c r="D192" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="E192" s="293" t="s">
+      <c r="E192" s="286" t="s">
         <v>437</v>
       </c>
-      <c r="F192" s="294"/>
+      <c r="F192" s="287"/>
       <c r="G192" s="143" t="s">
         <v>649</v>
       </c>
@@ -28449,10 +28449,10 @@
       <c r="D193" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="E193" s="293" t="s">
+      <c r="E193" s="286" t="s">
         <v>438</v>
       </c>
-      <c r="F193" s="294"/>
+      <c r="F193" s="287"/>
       <c r="G193" s="143" t="s">
         <v>650</v>
       </c>
@@ -28510,10 +28510,10 @@
       <c r="D194" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="E194" s="293" t="s">
+      <c r="E194" s="286" t="s">
         <v>439</v>
       </c>
-      <c r="F194" s="294"/>
+      <c r="F194" s="287"/>
       <c r="G194" s="143" t="s">
         <v>651</v>
       </c>
@@ -28571,10 +28571,10 @@
       <c r="D195" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="E195" s="293" t="s">
+      <c r="E195" s="286" t="s">
         <v>440</v>
       </c>
-      <c r="F195" s="294"/>
+      <c r="F195" s="287"/>
       <c r="G195" s="143" t="s">
         <v>652</v>
       </c>
@@ -28632,10 +28632,10 @@
       <c r="D196" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E196" s="293" t="s">
+      <c r="E196" s="286" t="s">
         <v>90</v>
       </c>
-      <c r="F196" s="294"/>
+      <c r="F196" s="287"/>
       <c r="G196" s="143" t="s">
         <v>653</v>
       </c>
@@ -28693,10 +28693,10 @@
       <c r="D197" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="E197" s="293" t="s">
+      <c r="E197" s="286" t="s">
         <v>441</v>
       </c>
-      <c r="F197" s="294"/>
+      <c r="F197" s="287"/>
       <c r="G197" s="143" t="s">
         <v>654</v>
       </c>
@@ -28754,10 +28754,10 @@
       <c r="D198" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="E198" s="293" t="s">
+      <c r="E198" s="286" t="s">
         <v>442</v>
       </c>
-      <c r="F198" s="294"/>
+      <c r="F198" s="287"/>
       <c r="G198" s="143" t="s">
         <v>655</v>
       </c>
@@ -28815,10 +28815,10 @@
       <c r="D199" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E199" s="293" t="s">
+      <c r="E199" s="286" t="s">
         <v>497</v>
       </c>
-      <c r="F199" s="294"/>
+      <c r="F199" s="287"/>
       <c r="G199" s="143" t="s">
         <v>710</v>
       </c>
@@ -28876,10 +28876,10 @@
       <c r="D200" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="E200" s="293" t="s">
+      <c r="E200" s="286" t="s">
         <v>443</v>
       </c>
-      <c r="F200" s="294"/>
+      <c r="F200" s="287"/>
       <c r="G200" s="143" t="s">
         <v>656</v>
       </c>
@@ -28937,10 +28937,10 @@
       <c r="D201" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="E201" s="293" t="s">
+      <c r="E201" s="286" t="s">
         <v>444</v>
       </c>
-      <c r="F201" s="294"/>
+      <c r="F201" s="287"/>
       <c r="G201" s="143" t="s">
         <v>657</v>
       </c>
@@ -28998,10 +28998,10 @@
       <c r="D202" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="E202" s="293" t="s">
+      <c r="E202" s="286" t="s">
         <v>445</v>
       </c>
-      <c r="F202" s="294"/>
+      <c r="F202" s="287"/>
       <c r="G202" s="143" t="s">
         <v>658</v>
       </c>
@@ -29059,10 +29059,10 @@
       <c r="D203" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="E203" s="293" t="s">
+      <c r="E203" s="286" t="s">
         <v>446</v>
       </c>
-      <c r="F203" s="294"/>
+      <c r="F203" s="287"/>
       <c r="G203" s="143" t="s">
         <v>659</v>
       </c>
@@ -29120,10 +29120,10 @@
       <c r="D204" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="E204" s="293" t="s">
+      <c r="E204" s="286" t="s">
         <v>447</v>
       </c>
-      <c r="F204" s="294"/>
+      <c r="F204" s="287"/>
       <c r="G204" s="143" t="s">
         <v>660</v>
       </c>
@@ -29181,10 +29181,10 @@
       <c r="D205" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="E205" s="293" t="s">
+      <c r="E205" s="286" t="s">
         <v>448</v>
       </c>
-      <c r="F205" s="294"/>
+      <c r="F205" s="287"/>
       <c r="G205" s="143" t="s">
         <v>661</v>
       </c>
@@ -29242,10 +29242,10 @@
       <c r="D206" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="E206" s="293" t="s">
+      <c r="E206" s="286" t="s">
         <v>146</v>
       </c>
-      <c r="F206" s="294"/>
+      <c r="F206" s="287"/>
       <c r="G206" s="143" t="s">
         <v>232</v>
       </c>
@@ -29303,10 +29303,10 @@
       <c r="D207" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="E207" s="293" t="s">
+      <c r="E207" s="286" t="s">
         <v>498</v>
       </c>
-      <c r="F207" s="294"/>
+      <c r="F207" s="287"/>
       <c r="G207" s="143" t="s">
         <v>711</v>
       </c>
@@ -29364,10 +29364,10 @@
       <c r="D208" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="E208" s="293" t="s">
+      <c r="E208" s="286" t="s">
         <v>499</v>
       </c>
-      <c r="F208" s="294"/>
+      <c r="F208" s="287"/>
       <c r="G208" s="143" t="s">
         <v>662</v>
       </c>
@@ -29423,15 +29423,15 @@
       <c r="C209" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D209" s="296" t="s">
+      <c r="D209" s="297" t="s">
         <v>151</v>
       </c>
-      <c r="E209" s="296"/>
-      <c r="F209" s="296"/>
-      <c r="G209" s="278"/>
-      <c r="H209" s="278"/>
-      <c r="I209" s="278"/>
-      <c r="J209" s="278"/>
+      <c r="E209" s="297"/>
+      <c r="F209" s="297"/>
+      <c r="G209" s="249"/>
+      <c r="H209" s="249"/>
+      <c r="I209" s="249"/>
+      <c r="J209" s="249"/>
       <c r="K209" s="18"/>
       <c r="L209" s="16"/>
       <c r="M209" s="18"/>
@@ -29450,10 +29450,10 @@
       <c r="D210" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="E210" s="293" t="s">
+      <c r="E210" s="286" t="s">
         <v>449</v>
       </c>
-      <c r="F210" s="294"/>
+      <c r="F210" s="287"/>
       <c r="G210" s="143" t="s">
         <v>663</v>
       </c>
@@ -29511,10 +29511,10 @@
       <c r="D211" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="E211" s="293" t="s">
+      <c r="E211" s="286" t="s">
         <v>450</v>
       </c>
-      <c r="F211" s="294"/>
+      <c r="F211" s="287"/>
       <c r="G211" s="143" t="s">
         <v>664</v>
       </c>
@@ -29572,10 +29572,10 @@
       <c r="D212" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E212" s="293" t="s">
+      <c r="E212" s="286" t="s">
         <v>451</v>
       </c>
-      <c r="F212" s="294"/>
+      <c r="F212" s="287"/>
       <c r="G212" s="143" t="s">
         <v>665</v>
       </c>
@@ -29633,10 +29633,10 @@
       <c r="D213" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="E213" s="293" t="s">
+      <c r="E213" s="286" t="s">
         <v>452</v>
       </c>
-      <c r="F213" s="294"/>
+      <c r="F213" s="287"/>
       <c r="G213" s="143" t="s">
         <v>666</v>
       </c>
@@ -29694,10 +29694,10 @@
       <c r="D214" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="E214" s="293" t="s">
+      <c r="E214" s="286" t="s">
         <v>500</v>
       </c>
-      <c r="F214" s="294"/>
+      <c r="F214" s="287"/>
       <c r="G214" s="143" t="s">
         <v>712</v>
       </c>
@@ -29754,10 +29754,10 @@
       <c r="D215" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="E215" s="293" t="s">
+      <c r="E215" s="286" t="s">
         <v>453</v>
       </c>
-      <c r="F215" s="294"/>
+      <c r="F215" s="287"/>
       <c r="G215" s="143" t="s">
         <v>667</v>
       </c>
@@ -29804,10 +29804,10 @@
       <c r="D216" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="E216" s="293" t="s">
+      <c r="E216" s="286" t="s">
         <v>501</v>
       </c>
-      <c r="F216" s="294"/>
+      <c r="F216" s="287"/>
       <c r="G216" s="143" t="s">
         <v>668</v>
       </c>
@@ -29865,10 +29865,10 @@
       <c r="D217" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="E217" s="293" t="s">
+      <c r="E217" s="286" t="s">
         <v>454</v>
       </c>
-      <c r="F217" s="294"/>
+      <c r="F217" s="287"/>
       <c r="G217" s="143" t="s">
         <v>669</v>
       </c>
@@ -29924,15 +29924,15 @@
       <c r="C218" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D218" s="296" t="s">
+      <c r="D218" s="297" t="s">
         <v>455</v>
       </c>
-      <c r="E218" s="296"/>
-      <c r="F218" s="296"/>
-      <c r="G218" s="278"/>
-      <c r="H218" s="278"/>
-      <c r="I218" s="278"/>
-      <c r="J218" s="278"/>
+      <c r="E218" s="297"/>
+      <c r="F218" s="297"/>
+      <c r="G218" s="249"/>
+      <c r="H218" s="249"/>
+      <c r="I218" s="249"/>
+      <c r="J218" s="249"/>
       <c r="K218" s="18"/>
       <c r="L218" s="21"/>
       <c r="M218" s="18"/>
@@ -29950,10 +29950,10 @@
       <c r="D219" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="E219" s="293" t="s">
+      <c r="E219" s="286" t="s">
         <v>456</v>
       </c>
-      <c r="F219" s="294"/>
+      <c r="F219" s="287"/>
       <c r="G219" s="143" t="s">
         <v>670</v>
       </c>
@@ -29999,10 +29999,10 @@
       <c r="D220" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="E220" s="293" t="s">
+      <c r="E220" s="286" t="s">
         <v>457</v>
       </c>
-      <c r="F220" s="294"/>
+      <c r="F220" s="287"/>
       <c r="G220" s="143" t="s">
         <v>671</v>
       </c>
@@ -30059,10 +30059,10 @@
       <c r="D221" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E221" s="293" t="s">
+      <c r="E221" s="286" t="s">
         <v>458</v>
       </c>
-      <c r="F221" s="294"/>
+      <c r="F221" s="287"/>
       <c r="G221" s="143" t="s">
         <v>672</v>
       </c>
@@ -30107,10 +30107,10 @@
       <c r="D222" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="E222" s="293" t="s">
+      <c r="E222" s="286" t="s">
         <v>459</v>
       </c>
-      <c r="F222" s="294"/>
+      <c r="F222" s="287"/>
       <c r="G222" s="143" t="s">
         <v>673</v>
       </c>
@@ -30155,10 +30155,10 @@
       <c r="D223" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="E223" s="293" t="s">
+      <c r="E223" s="286" t="s">
         <v>502</v>
       </c>
-      <c r="F223" s="294"/>
+      <c r="F223" s="287"/>
       <c r="G223" s="147" t="s">
         <v>674</v>
       </c>
@@ -30203,10 +30203,10 @@
       <c r="D224" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="E224" s="293" t="s">
+      <c r="E224" s="286" t="s">
         <v>503</v>
       </c>
-      <c r="F224" s="294"/>
+      <c r="F224" s="287"/>
       <c r="G224" s="143" t="s">
         <v>713</v>
       </c>
@@ -30251,10 +30251,10 @@
       <c r="D225" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="E225" s="293" t="s">
+      <c r="E225" s="286" t="s">
         <v>504</v>
       </c>
-      <c r="F225" s="294"/>
+      <c r="F225" s="287"/>
       <c r="G225" s="143" t="s">
         <v>714</v>
       </c>
@@ -30299,10 +30299,10 @@
       <c r="D226" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E226" s="293" t="s">
+      <c r="E226" s="286" t="s">
         <v>460</v>
       </c>
-      <c r="F226" s="294"/>
+      <c r="F226" s="287"/>
       <c r="G226" s="143" t="s">
         <v>675</v>
       </c>
@@ -30347,10 +30347,10 @@
       <c r="D227" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="E227" s="293" t="s">
+      <c r="E227" s="286" t="s">
         <v>505</v>
       </c>
-      <c r="F227" s="294"/>
+      <c r="F227" s="287"/>
       <c r="G227" s="143" t="s">
         <v>715</v>
       </c>
@@ -30395,10 +30395,10 @@
       <c r="D228" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="E228" s="293" t="s">
+      <c r="E228" s="286" t="s">
         <v>461</v>
       </c>
-      <c r="F228" s="294"/>
+      <c r="F228" s="287"/>
       <c r="G228" s="143" t="s">
         <v>676</v>
       </c>
@@ -30443,10 +30443,10 @@
       <c r="D229" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="E229" s="293" t="s">
+      <c r="E229" s="286" t="s">
         <v>462</v>
       </c>
-      <c r="F229" s="294"/>
+      <c r="F229" s="287"/>
       <c r="G229" s="143" t="s">
         <v>677</v>
       </c>
@@ -30490,16 +30490,16 @@
       <c r="B230" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C230" s="278" t="s">
+      <c r="C230" s="249" t="s">
         <v>58</v>
       </c>
-      <c r="D230" s="279"/>
-      <c r="E230" s="279"/>
-      <c r="F230" s="279"/>
-      <c r="G230" s="279"/>
-      <c r="H230" s="279"/>
-      <c r="I230" s="279"/>
-      <c r="J230" s="280"/>
+      <c r="D230" s="250"/>
+      <c r="E230" s="250"/>
+      <c r="F230" s="250"/>
+      <c r="G230" s="250"/>
+      <c r="H230" s="250"/>
+      <c r="I230" s="250"/>
+      <c r="J230" s="251"/>
       <c r="K230" s="38"/>
       <c r="L230" s="66"/>
       <c r="M230" s="38"/>
@@ -30530,15 +30530,15 @@
       <c r="C231" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="D231" s="278" t="s">
+      <c r="D231" s="249" t="s">
         <v>820</v>
       </c>
-      <c r="E231" s="279"/>
-      <c r="F231" s="279"/>
-      <c r="G231" s="279"/>
-      <c r="H231" s="279"/>
-      <c r="I231" s="279"/>
-      <c r="J231" s="280"/>
+      <c r="E231" s="250"/>
+      <c r="F231" s="250"/>
+      <c r="G231" s="250"/>
+      <c r="H231" s="250"/>
+      <c r="I231" s="250"/>
+      <c r="J231" s="251"/>
       <c r="K231" s="38"/>
       <c r="L231" s="66"/>
       <c r="M231" s="38"/>
@@ -30567,11 +30567,11 @@
       <c r="A232" s="26"/>
       <c r="B232" s="37"/>
       <c r="C232" s="121"/>
-      <c r="D232" s="284" t="s">
+      <c r="D232" s="301" t="s">
         <v>821</v>
       </c>
-      <c r="E232" s="288"/>
-      <c r="F232" s="285"/>
+      <c r="E232" s="303"/>
+      <c r="F232" s="302"/>
       <c r="G232" s="122" t="s">
         <v>822</v>
       </c>
@@ -30614,15 +30614,15 @@
       <c r="C233" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D233" s="278" t="s">
+      <c r="D233" s="249" t="s">
         <v>59</v>
       </c>
-      <c r="E233" s="279"/>
-      <c r="F233" s="279"/>
-      <c r="G233" s="279"/>
-      <c r="H233" s="279"/>
-      <c r="I233" s="279"/>
-      <c r="J233" s="280"/>
+      <c r="E233" s="250"/>
+      <c r="F233" s="250"/>
+      <c r="G233" s="250"/>
+      <c r="H233" s="250"/>
+      <c r="I233" s="250"/>
+      <c r="J233" s="251"/>
       <c r="K233" s="38"/>
       <c r="L233" s="66"/>
       <c r="M233" s="38"/>
@@ -30652,10 +30652,10 @@
       <c r="D234" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="E234" s="286" t="s">
+      <c r="E234" s="299" t="s">
         <v>831</v>
       </c>
-      <c r="F234" s="287"/>
+      <c r="F234" s="300"/>
       <c r="G234" s="155"/>
       <c r="H234" s="138"/>
       <c r="I234" s="155"/>
@@ -30861,10 +30861,10 @@
       <c r="D238" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E238" s="295" t="s">
+      <c r="E238" s="298" t="s">
         <v>830</v>
       </c>
-      <c r="F238" s="295"/>
+      <c r="F238" s="298"/>
       <c r="G238" s="155"/>
       <c r="H238" s="27"/>
       <c r="I238" s="155"/>
@@ -31011,10 +31011,10 @@
       <c r="D241" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E241" s="286" t="s">
+      <c r="E241" s="299" t="s">
         <v>66</v>
       </c>
-      <c r="F241" s="287"/>
+      <c r="F241" s="300"/>
       <c r="G241" s="155"/>
       <c r="H241" s="155"/>
       <c r="I241" s="155"/>
@@ -31172,10 +31172,10 @@
       <c r="D244" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E244" s="286" t="s">
+      <c r="E244" s="299" t="s">
         <v>70</v>
       </c>
-      <c r="F244" s="287"/>
+      <c r="F244" s="300"/>
       <c r="G244" s="156"/>
       <c r="H244" s="139"/>
       <c r="I244" s="156"/>
@@ -31319,10 +31319,10 @@
       <c r="D247" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E247" s="284" t="s">
+      <c r="E247" s="301" t="s">
         <v>833</v>
       </c>
-      <c r="F247" s="285"/>
+      <c r="F247" s="302"/>
       <c r="G247" s="38" t="s">
         <v>60</v>
       </c>
@@ -31367,10 +31367,10 @@
       <c r="D248" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E248" s="284" t="s">
+      <c r="E248" s="301" t="s">
         <v>834</v>
       </c>
-      <c r="F248" s="285"/>
+      <c r="F248" s="302"/>
       <c r="G248" s="38" t="s">
         <v>68</v>
       </c>
@@ -31414,15 +31414,15 @@
       <c r="C249" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D249" s="278" t="s">
+      <c r="D249" s="249" t="s">
         <v>835</v>
       </c>
-      <c r="E249" s="279"/>
-      <c r="F249" s="279"/>
-      <c r="G249" s="279"/>
-      <c r="H249" s="279"/>
-      <c r="I249" s="279"/>
-      <c r="J249" s="280"/>
+      <c r="E249" s="250"/>
+      <c r="F249" s="250"/>
+      <c r="G249" s="250"/>
+      <c r="H249" s="250"/>
+      <c r="I249" s="250"/>
+      <c r="J249" s="251"/>
       <c r="K249" s="18"/>
       <c r="L249" s="66"/>
       <c r="M249" s="18"/>
@@ -31443,10 +31443,10 @@
       <c r="D250" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="E250" s="286" t="s">
+      <c r="E250" s="299" t="s">
         <v>836</v>
       </c>
-      <c r="F250" s="287"/>
+      <c r="F250" s="300"/>
       <c r="G250" s="155"/>
       <c r="H250" s="27"/>
       <c r="I250" s="155"/>
@@ -31578,10 +31578,10 @@
       <c r="D253" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E253" s="286" t="s">
+      <c r="E253" s="299" t="s">
         <v>838</v>
       </c>
-      <c r="F253" s="287"/>
+      <c r="F253" s="300"/>
       <c r="G253" s="155"/>
       <c r="H253" s="155"/>
       <c r="I253" s="155"/>
@@ -31737,15 +31737,15 @@
       <c r="C256" s="105" t="s">
         <v>839</v>
       </c>
-      <c r="D256" s="278" t="s">
+      <c r="D256" s="249" t="s">
         <v>840</v>
       </c>
-      <c r="E256" s="279"/>
-      <c r="F256" s="279"/>
-      <c r="G256" s="279"/>
-      <c r="H256" s="279"/>
-      <c r="I256" s="279"/>
-      <c r="J256" s="280"/>
+      <c r="E256" s="250"/>
+      <c r="F256" s="250"/>
+      <c r="G256" s="250"/>
+      <c r="H256" s="250"/>
+      <c r="I256" s="250"/>
+      <c r="J256" s="251"/>
       <c r="K256" s="18"/>
       <c r="L256" s="148"/>
       <c r="M256" s="18"/>
@@ -31776,10 +31776,10 @@
       <c r="D257" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E257" s="286" t="s">
+      <c r="E257" s="299" t="s">
         <v>841</v>
       </c>
-      <c r="F257" s="287"/>
+      <c r="F257" s="300"/>
       <c r="G257" s="104" t="s">
         <v>55</v>
       </c>
@@ -31836,15 +31836,15 @@
       <c r="C258" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="D258" s="278" t="s">
+      <c r="D258" s="249" t="s">
         <v>842</v>
       </c>
-      <c r="E258" s="279"/>
-      <c r="F258" s="279"/>
-      <c r="G258" s="279"/>
-      <c r="H258" s="279"/>
-      <c r="I258" s="279"/>
-      <c r="J258" s="280"/>
+      <c r="E258" s="250"/>
+      <c r="F258" s="250"/>
+      <c r="G258" s="250"/>
+      <c r="H258" s="250"/>
+      <c r="I258" s="250"/>
+      <c r="J258" s="251"/>
       <c r="K258" s="18"/>
       <c r="L258" s="66"/>
       <c r="M258" s="18"/>
@@ -31875,10 +31875,10 @@
       <c r="D259" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E259" s="286" t="s">
+      <c r="E259" s="299" t="s">
         <v>843</v>
       </c>
-      <c r="F259" s="287"/>
+      <c r="F259" s="300"/>
       <c r="G259" s="104" t="s">
         <v>844</v>
       </c>
@@ -31936,10 +31936,10 @@
       <c r="D260" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E260" s="284" t="s">
+      <c r="E260" s="301" t="s">
         <v>845</v>
       </c>
-      <c r="F260" s="285"/>
+      <c r="F260" s="302"/>
       <c r="G260" s="104"/>
       <c r="H260" s="38"/>
       <c r="I260" s="38"/>
@@ -32151,10 +32151,10 @@
       <c r="D264" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E264" s="284" t="s">
+      <c r="E264" s="301" t="s">
         <v>848</v>
       </c>
-      <c r="F264" s="285"/>
+      <c r="F264" s="302"/>
       <c r="G264" s="104"/>
       <c r="H264" s="38" t="s">
         <v>27</v>
@@ -32553,10 +32553,10 @@
       <c r="D272" s="47" t="s">
         <v>857</v>
       </c>
-      <c r="E272" s="284" t="s">
+      <c r="E272" s="301" t="s">
         <v>858</v>
       </c>
-      <c r="F272" s="288"/>
+      <c r="F272" s="303"/>
       <c r="G272" s="40"/>
       <c r="H272" s="104"/>
       <c r="I272" s="38"/>
@@ -33018,10 +33018,10 @@
       <c r="D280" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E280" s="291" t="s">
+      <c r="E280" s="304" t="s">
         <v>859</v>
       </c>
-      <c r="F280" s="292"/>
+      <c r="F280" s="305"/>
       <c r="G280" s="38" t="s">
         <v>844</v>
       </c>
@@ -33078,15 +33078,15 @@
       <c r="C281" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="D281" s="278" t="s">
+      <c r="D281" s="249" t="s">
         <v>860</v>
       </c>
-      <c r="E281" s="279"/>
-      <c r="F281" s="279"/>
-      <c r="G281" s="279"/>
-      <c r="H281" s="279"/>
-      <c r="I281" s="279"/>
-      <c r="J281" s="280"/>
+      <c r="E281" s="250"/>
+      <c r="F281" s="250"/>
+      <c r="G281" s="250"/>
+      <c r="H281" s="250"/>
+      <c r="I281" s="250"/>
+      <c r="J281" s="251"/>
       <c r="K281" s="18"/>
       <c r="L281" s="66"/>
       <c r="M281" s="18"/>
@@ -33117,10 +33117,10 @@
       <c r="D282" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E282" s="284" t="s">
+      <c r="E282" s="301" t="s">
         <v>861</v>
       </c>
-      <c r="F282" s="288"/>
+      <c r="F282" s="303"/>
       <c r="G282" s="38" t="s">
         <v>844</v>
       </c>
@@ -33178,10 +33178,10 @@
       <c r="D283" s="47" t="s">
         <v>862</v>
       </c>
-      <c r="E283" s="284" t="s">
+      <c r="E283" s="301" t="s">
         <v>863</v>
       </c>
-      <c r="F283" s="288"/>
+      <c r="F283" s="303"/>
       <c r="G283" s="38" t="s">
         <v>844</v>
       </c>
@@ -33239,10 +33239,10 @@
       <c r="D284" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E284" s="284" t="s">
+      <c r="E284" s="301" t="s">
         <v>864</v>
       </c>
-      <c r="F284" s="288"/>
+      <c r="F284" s="303"/>
       <c r="G284" s="38" t="s">
         <v>49</v>
       </c>
@@ -33300,10 +33300,10 @@
       <c r="D285" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E285" s="284" t="s">
+      <c r="E285" s="301" t="s">
         <v>865</v>
       </c>
-      <c r="F285" s="288"/>
+      <c r="F285" s="303"/>
       <c r="G285" s="38" t="s">
         <v>49</v>
       </c>
@@ -33361,10 +33361,10 @@
       <c r="D286" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E286" s="284" t="s">
+      <c r="E286" s="301" t="s">
         <v>866</v>
       </c>
-      <c r="F286" s="288"/>
+      <c r="F286" s="303"/>
       <c r="G286" s="38" t="s">
         <v>49</v>
       </c>
@@ -33422,10 +33422,10 @@
       <c r="D287" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E287" s="284" t="s">
+      <c r="E287" s="301" t="s">
         <v>867</v>
       </c>
-      <c r="F287" s="288"/>
+      <c r="F287" s="303"/>
       <c r="G287" s="38" t="s">
         <v>49</v>
       </c>
@@ -33483,10 +33483,10 @@
       <c r="D288" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E288" s="284" t="s">
+      <c r="E288" s="301" t="s">
         <v>868</v>
       </c>
-      <c r="F288" s="288"/>
+      <c r="F288" s="303"/>
       <c r="G288" s="38" t="s">
         <v>77</v>
       </c>
@@ -33544,10 +33544,10 @@
       <c r="D289" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E289" s="284" t="s">
+      <c r="E289" s="301" t="s">
         <v>870</v>
       </c>
-      <c r="F289" s="288"/>
+      <c r="F289" s="303"/>
       <c r="G289" s="38" t="s">
         <v>871</v>
       </c>
@@ -33605,10 +33605,10 @@
       <c r="D290" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="E290" s="284" t="s">
+      <c r="E290" s="301" t="s">
         <v>872</v>
       </c>
-      <c r="F290" s="288"/>
+      <c r="F290" s="303"/>
       <c r="G290" s="38" t="s">
         <v>33</v>
       </c>
@@ -33663,16 +33663,16 @@
       <c r="B291" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C291" s="278" t="s">
+      <c r="C291" s="249" t="s">
         <v>74</v>
       </c>
-      <c r="D291" s="279"/>
-      <c r="E291" s="279"/>
-      <c r="F291" s="279"/>
-      <c r="G291" s="279"/>
-      <c r="H291" s="279"/>
-      <c r="I291" s="279"/>
-      <c r="J291" s="280"/>
+      <c r="D291" s="250"/>
+      <c r="E291" s="250"/>
+      <c r="F291" s="250"/>
+      <c r="G291" s="250"/>
+      <c r="H291" s="250"/>
+      <c r="I291" s="250"/>
+      <c r="J291" s="251"/>
       <c r="K291" s="18"/>
       <c r="L291" s="66"/>
       <c r="M291" s="18"/>
@@ -33691,15 +33691,15 @@
       <c r="C292" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D292" s="278" t="s">
+      <c r="D292" s="249" t="s">
         <v>75</v>
       </c>
-      <c r="E292" s="279"/>
-      <c r="F292" s="279"/>
-      <c r="G292" s="279"/>
-      <c r="H292" s="279"/>
-      <c r="I292" s="279"/>
-      <c r="J292" s="280"/>
+      <c r="E292" s="250"/>
+      <c r="F292" s="250"/>
+      <c r="G292" s="250"/>
+      <c r="H292" s="250"/>
+      <c r="I292" s="250"/>
+      <c r="J292" s="251"/>
       <c r="K292" s="18"/>
       <c r="L292" s="66"/>
       <c r="M292" s="18"/>
@@ -33729,10 +33729,10 @@
       <c r="D293" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="E293" s="289" t="s">
+      <c r="E293" s="306" t="s">
         <v>873</v>
       </c>
-      <c r="F293" s="290"/>
+      <c r="F293" s="307"/>
       <c r="G293" s="64" t="s">
         <v>895</v>
       </c>
@@ -33776,15 +33776,15 @@
       <c r="C294" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D294" s="278" t="s">
+      <c r="D294" s="249" t="s">
         <v>874</v>
       </c>
-      <c r="E294" s="279"/>
-      <c r="F294" s="279"/>
-      <c r="G294" s="279"/>
-      <c r="H294" s="279"/>
-      <c r="I294" s="279"/>
-      <c r="J294" s="280"/>
+      <c r="E294" s="250"/>
+      <c r="F294" s="250"/>
+      <c r="G294" s="250"/>
+      <c r="H294" s="250"/>
+      <c r="I294" s="250"/>
+      <c r="J294" s="251"/>
       <c r="K294" s="18"/>
       <c r="L294" s="148"/>
       <c r="M294" s="18"/>
@@ -33803,10 +33803,10 @@
       <c r="D295" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="E295" s="286" t="s">
+      <c r="E295" s="299" t="s">
         <v>875</v>
       </c>
-      <c r="F295" s="287"/>
+      <c r="F295" s="300"/>
       <c r="G295" s="155" t="s">
         <v>49</v>
       </c>
@@ -33862,15 +33862,15 @@
       <c r="C296" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D296" s="278" t="s">
+      <c r="D296" s="249" t="s">
         <v>876</v>
       </c>
-      <c r="E296" s="279"/>
-      <c r="F296" s="279"/>
-      <c r="G296" s="279"/>
-      <c r="H296" s="279"/>
-      <c r="I296" s="279"/>
-      <c r="J296" s="280"/>
+      <c r="E296" s="250"/>
+      <c r="F296" s="250"/>
+      <c r="G296" s="250"/>
+      <c r="H296" s="250"/>
+      <c r="I296" s="250"/>
+      <c r="J296" s="251"/>
       <c r="K296" s="18"/>
       <c r="L296" s="66"/>
       <c r="M296" s="18"/>
@@ -33889,10 +33889,10 @@
       <c r="D297" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="E297" s="284" t="s">
+      <c r="E297" s="301" t="s">
         <v>80</v>
       </c>
-      <c r="F297" s="285"/>
+      <c r="F297" s="302"/>
       <c r="G297" s="38"/>
       <c r="H297" s="40"/>
       <c r="I297" s="38"/>
@@ -34110,10 +34110,10 @@
       <c r="D301" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E301" s="284" t="s">
+      <c r="E301" s="301" t="s">
         <v>877</v>
       </c>
-      <c r="F301" s="285"/>
+      <c r="F301" s="302"/>
       <c r="G301" s="38"/>
       <c r="H301" s="38"/>
       <c r="I301" s="38"/>
@@ -34284,15 +34284,15 @@
       <c r="C305" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D305" s="278" t="s">
+      <c r="D305" s="249" t="s">
         <v>85</v>
       </c>
-      <c r="E305" s="279"/>
-      <c r="F305" s="279"/>
-      <c r="G305" s="279"/>
-      <c r="H305" s="279"/>
-      <c r="I305" s="279"/>
-      <c r="J305" s="280"/>
+      <c r="E305" s="250"/>
+      <c r="F305" s="250"/>
+      <c r="G305" s="250"/>
+      <c r="H305" s="250"/>
+      <c r="I305" s="250"/>
+      <c r="J305" s="251"/>
       <c r="K305" s="18"/>
       <c r="L305" s="66"/>
       <c r="M305" s="18"/>
@@ -34310,10 +34310,10 @@
       <c r="D306" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="E306" s="284" t="s">
+      <c r="E306" s="301" t="s">
         <v>887</v>
       </c>
-      <c r="F306" s="285"/>
+      <c r="F306" s="302"/>
       <c r="G306" s="38"/>
       <c r="H306" s="27"/>
       <c r="I306" s="155"/>
@@ -34520,15 +34520,15 @@
       <c r="C310" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D310" s="278" t="s">
+      <c r="D310" s="249" t="s">
         <v>888</v>
       </c>
-      <c r="E310" s="279"/>
-      <c r="F310" s="279"/>
-      <c r="G310" s="279"/>
-      <c r="H310" s="279"/>
-      <c r="I310" s="279"/>
-      <c r="J310" s="280"/>
+      <c r="E310" s="250"/>
+      <c r="F310" s="250"/>
+      <c r="G310" s="250"/>
+      <c r="H310" s="250"/>
+      <c r="I310" s="250"/>
+      <c r="J310" s="251"/>
       <c r="K310" s="18"/>
       <c r="L310" s="66"/>
       <c r="M310" s="18"/>
@@ -34571,10 +34571,10 @@
       <c r="D311" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="E311" s="286" t="s">
+      <c r="E311" s="299" t="s">
         <v>889</v>
       </c>
-      <c r="F311" s="287"/>
+      <c r="F311" s="300"/>
       <c r="G311" s="155" t="s">
         <v>890</v>
       </c>
@@ -34632,10 +34632,10 @@
       <c r="D312" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E312" s="286" t="s">
+      <c r="E312" s="299" t="s">
         <v>892</v>
       </c>
-      <c r="F312" s="287"/>
+      <c r="F312" s="300"/>
       <c r="G312" s="155" t="s">
         <v>871</v>
       </c>
@@ -34693,10 +34693,10 @@
       <c r="D313" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E313" s="284" t="s">
+      <c r="E313" s="301" t="s">
         <v>893</v>
       </c>
-      <c r="F313" s="285"/>
+      <c r="F313" s="302"/>
       <c r="G313" s="38" t="s">
         <v>871</v>
       </c>
@@ -34749,89 +34749,177 @@
     </row>
   </sheetData>
   <mergeCells count="278">
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="D137:J137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="D126:J126"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="B2:T2"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="E301:F301"/>
+    <mergeCell ref="D305:J305"/>
+    <mergeCell ref="E306:F306"/>
+    <mergeCell ref="D310:J310"/>
+    <mergeCell ref="E311:F311"/>
+    <mergeCell ref="E312:F312"/>
+    <mergeCell ref="E313:F313"/>
+    <mergeCell ref="E289:F289"/>
+    <mergeCell ref="E290:F290"/>
+    <mergeCell ref="C291:J291"/>
+    <mergeCell ref="D292:J292"/>
+    <mergeCell ref="E293:F293"/>
+    <mergeCell ref="D294:J294"/>
+    <mergeCell ref="E295:F295"/>
+    <mergeCell ref="D296:J296"/>
+    <mergeCell ref="E297:F297"/>
+    <mergeCell ref="E280:F280"/>
+    <mergeCell ref="D281:J281"/>
+    <mergeCell ref="E282:F282"/>
+    <mergeCell ref="E283:F283"/>
+    <mergeCell ref="E284:F284"/>
+    <mergeCell ref="E285:F285"/>
+    <mergeCell ref="E286:F286"/>
+    <mergeCell ref="E287:F287"/>
+    <mergeCell ref="E288:F288"/>
+    <mergeCell ref="E272:F272"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="D256:J256"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="D258:J258"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="E247:F247"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="E248:F248"/>
+    <mergeCell ref="D249:J249"/>
+    <mergeCell ref="E250:F250"/>
+    <mergeCell ref="C230:J230"/>
+    <mergeCell ref="D231:J231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D233:J233"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="E238:F238"/>
+    <mergeCell ref="E241:F241"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="D209:J209"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="D218:J218"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="E200:F200"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="D188:J188"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="C187:J187"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="D171:J171"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="C149:J149"/>
+    <mergeCell ref="D150:J150"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="D72:J72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="E57:F57"/>
@@ -34856,177 +34944,89 @@
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="D72:J72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="D171:J171"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="C149:J149"/>
-    <mergeCell ref="D150:J150"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="D188:J188"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="C187:J187"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="E200:F200"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="D209:J209"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="E214:F214"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="D218:J218"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="E227:F227"/>
-    <mergeCell ref="E228:F228"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="E238:F238"/>
-    <mergeCell ref="E241:F241"/>
-    <mergeCell ref="E244:F244"/>
-    <mergeCell ref="E248:F248"/>
-    <mergeCell ref="D249:J249"/>
-    <mergeCell ref="E250:F250"/>
-    <mergeCell ref="C230:J230"/>
-    <mergeCell ref="D231:J231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="D233:J233"/>
-    <mergeCell ref="E234:F234"/>
-    <mergeCell ref="E272:F272"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="E253:F253"/>
-    <mergeCell ref="D256:J256"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="D258:J258"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="E264:F264"/>
-    <mergeCell ref="E247:F247"/>
-    <mergeCell ref="E280:F280"/>
-    <mergeCell ref="D281:J281"/>
-    <mergeCell ref="E282:F282"/>
-    <mergeCell ref="E283:F283"/>
-    <mergeCell ref="E284:F284"/>
-    <mergeCell ref="E285:F285"/>
-    <mergeCell ref="E286:F286"/>
-    <mergeCell ref="E287:F287"/>
-    <mergeCell ref="E288:F288"/>
-    <mergeCell ref="E301:F301"/>
-    <mergeCell ref="D305:J305"/>
-    <mergeCell ref="E306:F306"/>
-    <mergeCell ref="D310:J310"/>
-    <mergeCell ref="E311:F311"/>
-    <mergeCell ref="E312:F312"/>
-    <mergeCell ref="E313:F313"/>
-    <mergeCell ref="E289:F289"/>
-    <mergeCell ref="E290:F290"/>
-    <mergeCell ref="C291:J291"/>
-    <mergeCell ref="D292:J292"/>
-    <mergeCell ref="E293:F293"/>
-    <mergeCell ref="D294:J294"/>
-    <mergeCell ref="E295:F295"/>
-    <mergeCell ref="D296:J296"/>
-    <mergeCell ref="E297:F297"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="D126:J126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="D137:J137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0100-000000000000}">
